--- a/twitter-scraper/s.xlsx
+++ b/twitter-scraper/s.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="516">
   <si>
     <t>date</t>
   </si>
@@ -64,9 +64,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>https://twitter.com/Kelly_S_Irvin/status/1334591104587620354</t>
-  </si>
-  <si>
     <t>b''</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>ohjanabelle</t>
   </si>
   <si>
-    <t>https://twitter.com/ohjanabelle/status/1334492188839976962</t>
-  </si>
-  <si>
     <t>b'I keep refreshing the radiology results page to see if my CT results magically pop up. I know they won\\u2019t until my doctor reports them next week, but still\\u2026 #cancerduringcovid #coloncancer #scanxiety'</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>SimonMDLord</t>
   </si>
   <si>
-    <t>https://twitter.com/SimonMDLord/status/1334418907990536192</t>
-  </si>
-  <si>
     <t>b"@pickenan @ethansgrumps It's called scanxiety in this house ;)"</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t>FCancergirl</t>
   </si>
   <si>
-    <t>https://twitter.com/FCancergirl/status/1334414540805726208</t>
-  </si>
-  <si>
     <t>b"It's my first night having scanxiety, so to commemorate I figured I'd toss n turn, watch the time, &amp;amp; calculate the amount of rest I'd get if I fell asleep right NOW\\nMaybe I'll nap in the MRI? \\n\\n#breastcancer #chemo #insomnia #Cancer #mentalhealth #scan #anxiety"</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
     <t>zoomydu</t>
   </si>
   <si>
-    <t>https://twitter.com/zoomydu/status/1334312287302250496</t>
-  </si>
-  <si>
     <t>b"@terminalyill3st A local friend of mine just posted today that she is reinfected. I'm worried for her. Shit's really dire, here. Between the 7th and 17th I have lab work, yearly office appt. with my ass surgeon, CT scan, and CT follow-up...and I have Covid fears on top of my usual #scanxiety."</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t>Samshopaholic</t>
   </si>
   <si>
-    <t>https://twitter.com/Samshopaholic/status/1334947498968961030</t>
-  </si>
-  <si>
     <t>b'\\U0001f340 \\U0001f49a'</t>
   </si>
   <si>
@@ -184,9 +166,6 @@
     <t>DpoidMonopod</t>
   </si>
   <si>
-    <t>https://twitter.com/DpoidMonopod/status/1334911395528388611</t>
-  </si>
-  <si>
     <t>b'@ThanksCancer I prefer the advanced scanxiety courses, specialising in panic attacks'</t>
   </si>
   <si>
@@ -196,9 +175,6 @@
     <t>cocoandcaramell</t>
   </si>
   <si>
-    <t>https://twitter.com/cocoandcaramell/status/1334898934758707201</t>
-  </si>
-  <si>
     <t>b'As a cancer survivor whose gone through chemo and 2 surgeries. I can\\u2019t understand why I would have to wait 4 months to get my MRI results. I\\u2019ve already waited over a week and haven\\u2019t slept well for a month leading up to MRI this is life now living with scanxiety #cancersurvivor'</t>
   </si>
   <si>
@@ -214,9 +190,6 @@
     <t>mirletaliz</t>
   </si>
   <si>
-    <t>https://twitter.com/mirletaliz/status/1334882965327843341</t>
-  </si>
-  <si>
     <t>b"https://t.co/Ux0XxVpttj\\n#Scanxiety is a real thing and every #survivor I know experiences it at some level every time they have follow up appointments. Here's some tips on how to manage it! @LungCancer_HU"</t>
   </si>
   <si>
@@ -235,9 +208,6 @@
     <t>mssrfcali</t>
   </si>
   <si>
-    <t>https://twitter.com/mssrfcali/status/1334870140232450049</t>
-  </si>
-  <si>
     <t>b'\\U0001f64f \\U0001f3fb \\U0001f497'</t>
   </si>
   <si>
@@ -250,9 +220,6 @@
     <t>AmaliaSouthey</t>
   </si>
   <si>
-    <t>https://twitter.com/AmaliaSouthey/status/1334832213104484354</t>
-  </si>
-  <si>
     <t>b'@loveintimesofc2 Scanxiety is real... and its hard. I truly hope it goes okay. Strength to you and him of course xxxx'</t>
   </si>
   <si>
@@ -265,9 +232,6 @@
     <t>CarlosHBarcenas</t>
   </si>
   <si>
-    <t>https://twitter.com/CarlosHBarcenas/status/1335293682854060035</t>
-  </si>
-  <si>
     <t>b'Ways to cope with scanxiety. Tips from @MDAndersonNews https://t.co/woHpNpWM6l'</t>
   </si>
   <si>
@@ -286,9 +250,6 @@
     <t>Willowsrainbow</t>
   </si>
   <si>
-    <t>https://twitter.com/Willowsrainbow/status/1335268235692961794</t>
-  </si>
-  <si>
     <t>b'Here is just a small sample of the words you shared with us. Truly heartbreaking. No woman should face this alone. No partner should be excluded from this process.\\n\\n#rainbowbabyhour #scanxiety #pregnancyafterloss #butnotmaternity #willowsrainbowbox https://t.co/mh0WDzRhM7'</t>
   </si>
   <si>
@@ -307,9 +268,6 @@
     <t>https://t.co/mh0WDzRhM</t>
   </si>
   <si>
-    <t>https://twitter.com/Willowsrainbow/status/1335268171532603403</t>
-  </si>
-  <si>
     <t>b'RAINBOW BABY HOUR ON INSTAGRAM: SCANXIETY\\n\\nWe asked you how it felt to attend your scan(s) alone during pregnancy after loss. https://t.co/hAe3CA9e34'</t>
   </si>
   <si>
@@ -322,9 +280,6 @@
     <t>JohnAndrews2</t>
   </si>
   <si>
-    <t>https://twitter.com/JohnAndrews2/status/1335182054842134529</t>
-  </si>
-  <si>
     <t>b'@Bethvthomas Good luck with the scans. One of the hardest bits it the waiting. It is called #scanxiety for a reason. Hope they get on with treatment quickly and 2021 brings you happier days #fuckcancer'</t>
   </si>
   <si>
@@ -340,9 +295,6 @@
     <t>rshill37</t>
   </si>
   <si>
-    <t>https://twitter.com/rshill37/status/1335058814329102337</t>
-  </si>
-  <si>
     <t>b"I think I drank too much prosecco tonight but it's Friday of a pandemic and I don't give a shit. Have to district myself somehow. Scanxiety is a bitch."</t>
   </si>
   <si>
@@ -352,9 +304,6 @@
     <t>Milwaukee</t>
   </si>
   <si>
-    <t>https://twitter.com/Willowsrainbow/status/1335679310523412482</t>
-  </si>
-  <si>
     <t>b'RAINBOW BABY HOUR ON INSTAGRAM - SCANXIETY\\n\\nDespite there being no option for \\u2018both\\u2019 in our poll, lots of you messaged to say you had a mix of NHS and private scans during your pregnancy after loss.\\n\\n#pregnancyafterloss #rainbowbabyhour #scanxiety #maternalanxiety #rainbowbaby https://t.co/NtgWBf9gwl'</t>
   </si>
   <si>
@@ -370,9 +319,6 @@
     <t>sarah16107480</t>
   </si>
   <si>
-    <t>https://twitter.com/sarah16107480/status/1336079203842797569</t>
-  </si>
-  <si>
     <t>b'@janseventyfour Sorry to hear that. #scanxiety isn\\u2019t just a thing in cancer, it is real for so many conditions'</t>
   </si>
   <si>
@@ -385,9 +331,6 @@
     <t>kdrabinski</t>
   </si>
   <si>
-    <t>https://twitter.com/kdrabinski/status/1336066872417116160</t>
-  </si>
-  <si>
     <t>b"I have a mammogram tomorrow morning. The chances that it will be clear are much greater than the chances that it won't be. And yet. Scanxiety is so real, and it's so lonely. That's my report from a day of anxious pacing. Will report back on this tweet when I have results."</t>
   </si>
   <si>
@@ -400,9 +343,6 @@
     <t>dcharlevo</t>
   </si>
   <si>
-    <t>https://twitter.com/dcharlevo/status/1336065580344827905</t>
-  </si>
-  <si>
     <t>b"@Lilpriz Good luck to you. I'm up tomorrow. I always think maybe this time the #scanxiety will lessen but no....if anything I think it's worse for me."</t>
   </si>
   <si>
@@ -415,9 +355,6 @@
     <t>Lilpriz</t>
   </si>
   <si>
-    <t>https://twitter.com/Lilpriz/status/1336065098444509186</t>
-  </si>
-  <si>
     <t>b'#scanxiety today! Getting my scans to determine stability or growth?! Continue with #clinicaltrail or another form of treatment :/ #fuckcancer https://t.co/h2e6HVBN1c'</t>
   </si>
   <si>
@@ -439,9 +376,6 @@
     <t>Sisyphus43</t>
   </si>
   <si>
-    <t>https://twitter.com/Sisyphus43/status/1336022630927745025</t>
-  </si>
-  <si>
     <t>b'For the sixth time this year I\'ve walked into a health care professional\'s office and had them exclaim "Oh, my God."\\n\\nScanxiety doesn\'t end until the images are interpreted not at the procedure.'</t>
   </si>
   <si>
@@ -451,18 +385,12 @@
     <t>Idaho</t>
   </si>
   <si>
-    <t>https://twitter.com/Sisyphus43/status/1335966002853474304</t>
-  </si>
-  <si>
     <t>b"@A_Research_Guru Tanks. \\n\\nScanxiety. Yes. It's been a rough weekend. It always happens on a Friday."</t>
   </si>
   <si>
     <t>A_Research_Guru</t>
   </si>
   <si>
-    <t>https://twitter.com/A_Research_Guru/status/1335964567277453314</t>
-  </si>
-  <si>
     <t>b'\\U0001f49a'</t>
   </si>
   <si>
@@ -478,9 +406,6 @@
     <t>lori_burwell</t>
   </si>
   <si>
-    <t>https://twitter.com/lori_burwell/status/1335929425335115776</t>
-  </si>
-  <si>
     <t>b'@JJ_unlocked It is brutal. No adequate way to describe the stress #scanxiety causes. Holding you close, wanting the very best for you, JJ.'</t>
   </si>
   <si>
@@ -493,9 +418,6 @@
     <t>JJ_unlocked</t>
   </si>
   <si>
-    <t>https://twitter.com/JJ_unlocked/status/1335899532501127168</t>
-  </si>
-  <si>
     <t>b'Once again I\\u2019m waiting for scan results and it\\u2019s hard to distract myself. Last night I had nightmares about my cancer progressing. Waiting puts people under additional stress. There has to be a more patient centred way to do this.\\n\\n#bccww #mbc #metastaticbreastcancer \\n#scanxiety https://t.co/z2jIiToIRs'</t>
   </si>
   <si>
@@ -517,9 +439,6 @@
     <t>scottybooks</t>
   </si>
   <si>
-    <t>https://twitter.com/scottybooks/status/1335775882967982087</t>
-  </si>
-  <si>
     <t>b'#Scanxiety. I know my cancer peeps understand.'</t>
   </si>
   <si>
@@ -532,9 +451,6 @@
     <t>TheBigOrdeal</t>
   </si>
   <si>
-    <t>https://twitter.com/TheBigOrdeal/status/1336299053525704705</t>
-  </si>
-  <si>
     <t>b'Scanxiety is real. By helping others, you can help yourself.\\n#CopingWithCancer\\n#CancerEmotions https://t.co/ckV2nobHjN'</t>
   </si>
   <si>
@@ -553,9 +469,6 @@
     <t>petctacademy</t>
   </si>
   <si>
-    <t>https://twitter.com/petctacademy/status/1336249261273444353</t>
-  </si>
-  <si>
     <t>b"The PET-CT Academy patient representative @KateNCUK is providing us with a series of tips to help with #Scanxiety. This time it's about the power of sharing stories.\\n\\n#tiptuesday @ncukcharity @macmillancancer @AllianceMedica1 https://t.co/UWVFCZn5Tu"</t>
   </si>
   <si>
@@ -574,9 +487,6 @@
     <t>PMPSurvivor</t>
   </si>
   <si>
-    <t>https://twitter.com/PMPSurvivor/status/1336226098112303105</t>
-  </si>
-  <si>
     <t>b'Never doubt that scanxiety is real - waiting for the results is much worse than the anticipation before the scan itself. https://t.co/I0owsaKfNg'</t>
   </si>
   <si>
@@ -589,9 +499,6 @@
     <t>osusteelersJen</t>
   </si>
   <si>
-    <t>https://twitter.com/osusteelersJen/status/1336140824741023746</t>
-  </si>
-  <si>
     <t>b'@JetlifeMegs Will be thinking of you..  it never gets easier.. Scanxiety is definite..  when do you get the results?'</t>
   </si>
   <si>
@@ -604,9 +511,6 @@
     <t>Breastcancerorg</t>
   </si>
   <si>
-    <t>https://twitter.com/Breastcancerorg/status/1336808154676473859</t>
-  </si>
-  <si>
     <t>b'Community member: "Anyone else have scans this week? Scanxiety has set in for me. It\'s such a weird feeling\\u2026 on one hand, I\'d love confirmation that all is well, but I\'m terrified of finding progression." Can you relate? Join the conversation: https://t.co/Bh9P0cMa9I #mbc #bcsm https://t.co/2lNGv4M1t7'</t>
   </si>
   <si>
@@ -628,9 +532,6 @@
     <t>CCAlliance</t>
   </si>
   <si>
-    <t>https://twitter.com/CCAlliance/status/1336806843365142528</t>
-  </si>
-  <si>
     <t>b'We are teaming up with @TheColonClub to bring you the Surveillance and Scanxiety Webinar, sponsored by our friends at @NateraOncology.\\nJoin us Dec 16 to learn more about these important topics, and get your questions answered by our speakers. Register here https://t.co/DKwEPjaNZZ https://t.co/wqPCnLo3mE'</t>
   </si>
   <si>
@@ -649,9 +550,6 @@
     <t>LadyWarrior979</t>
   </si>
   <si>
-    <t>https://twitter.com/LadyWarrior979/status/1336675208288215044</t>
-  </si>
-  <si>
     <t>b'\\U0001f611 \\U0001f611 \\U0001f611'</t>
   </si>
   <si>
@@ -667,9 +565,6 @@
     <t>doseofpretty</t>
   </si>
   <si>
-    <t>https://twitter.com/doseofpretty/status/1336664749426225156</t>
-  </si>
-  <si>
     <t>b'So my mom is having her pet scan today instead of tomorrow. The scanxiety is real. #fucklymphoma'</t>
   </si>
   <si>
@@ -685,9 +580,6 @@
     <t>TeenageCancer</t>
   </si>
   <si>
-    <t>https://twitter.com/TeenageCancer/status/1336624184290660354</t>
-  </si>
-  <si>
     <t>b'The new episode of @AfterThoughts34 podcast is live.\\n\\nThe team meet Jake who was diagnosed with a brain tumour aged 19. He talks about short term memory loss, scanxiety and having brain surgery within hours of finding out he has cancer.\\n\\nListen here: https://t.co/KstvGQRcoy https://t.co/np8CFOd7cC'</t>
   </si>
   <si>
@@ -706,9 +598,6 @@
     <t>NinaFinbow</t>
   </si>
   <si>
-    <t>https://twitter.com/NinaFinbow/status/1336612278909755392</t>
-  </si>
-  <si>
     <t>b"As mother of daughter recverng from cancer &amp;amp; despite feelings of utter anxiety waiting for each scan/blood test results I never ask &amp;amp; know she'll tell me when time's right. What cancer sufferers are experiencing re scanxiety on reg basis is unimaginable @PMPSurvivor @K_Brickell https://t.co/d3RAews4s3"</t>
   </si>
   <si>
@@ -724,9 +613,6 @@
     <t>Julienothidden</t>
   </si>
   <si>
-    <t>https://twitter.com/Julienothidden/status/1336551659833614339</t>
-  </si>
-  <si>
     <t>b'@Speedingalong Scanxiety never leaves you. Every single one made us sick to the stomach...what if how or when. It\\u2019s never easy but it has to be done x'</t>
   </si>
   <si>
@@ -739,9 +625,6 @@
     <t>Jerrymunkee</t>
   </si>
   <si>
-    <t>https://twitter.com/Jerrymunkee/status/1336530940227706880</t>
-  </si>
-  <si>
     <t>b'@AIWashburn Waiting to get the results of my latest brain scan.  Having what @morethanmySLE referred to as scanxiety. \\nGreat thread.'</t>
   </si>
   <si>
@@ -754,18 +637,12 @@
     <t>ann_serine</t>
   </si>
   <si>
-    <t>https://twitter.com/ann_serine/status/1336523834803908609</t>
-  </si>
-  <si>
     <t>b"@Sisyphus43 That's a good thing! If some calls come quickly, the general rule of thumb, is the radiologist has called the doc and said omg and then you get a call. I'd be ok with this depending on location and many factors. Scanxiety is perfectly normal. You got this!"</t>
   </si>
   <si>
     <t>MaryKSHubbard</t>
   </si>
   <si>
-    <t>https://twitter.com/MaryKSHubbard/status/1336482254357327875</t>
-  </si>
-  <si>
     <t>b'@JNeurman YES! Unless they have been unfortunate enough to have gotten a life-threatening diagnosis themselves, they likely have no idea what it\\u2019s really like to have to WAIT for those test results! #scanxiety'</t>
   </si>
   <si>
@@ -775,9 +652,6 @@
     <t>NabbsCreekGnome</t>
   </si>
   <si>
-    <t>https://twitter.com/NabbsCreekGnome/status/1336472909095821313</t>
-  </si>
-  <si>
     <t>b'\\U0001f92c \\u23f1'</t>
   </si>
   <si>
@@ -793,9 +667,6 @@
     <t>lifebythecreek</t>
   </si>
   <si>
-    <t>https://twitter.com/lifebythecreek/status/1336462829721948163</t>
-  </si>
-  <si>
     <t>b"@EWErickson Praise God! Scanxiety is real. I'm so glad you got good news!"</t>
   </si>
   <si>
@@ -805,9 +676,6 @@
     <t>NateraOncology</t>
   </si>
   <si>
-    <t>https://twitter.com/NateraOncology/status/1337150744638726147</t>
-  </si>
-  <si>
     <t>b"We're excited to sponsor the Surveillance and Scanxiety Webinar, brought to you by @TheColonClub and @CCAlliance!\\n\\nJoin us Dec 16 to learn more about these important topics, and get your questions answered by several key speakers! Register here: https://t.co/6HwvDnB3LL https://t.co/O07FcIh6hU"</t>
   </si>
   <si>
@@ -823,9 +691,6 @@
     <t>TheColonClub</t>
   </si>
   <si>
-    <t>https://twitter.com/TheColonClub/status/1337132908893499392</t>
-  </si>
-  <si>
     <t>b'The Colon Club is excited to be teaming up again with @CCAlliance to bring you Surveillance &amp;amp; Scanxiety! Join us as we talk about scans and everything to do with them. Drs, Nurses, researchers, and all others in the medical community are welcome!\\nhttps://t.co/J6ETCFw36j https://t.co/ZZ7s4MJzoM'</t>
   </si>
   <si>
@@ -841,9 +706,6 @@
     <t>looneymetal</t>
   </si>
   <si>
-    <t>https://twitter.com/looneymetal/status/1337127554667474957</t>
-  </si>
-  <si>
     <t>b'@Gidsentinel My daughters mum has terrible anxiety leading up to every scan, parents call it scanxiety. But the feeling of it being clear is such a relief.'</t>
   </si>
   <si>
@@ -856,9 +718,6 @@
     <t>makingbabyvav</t>
   </si>
   <si>
-    <t>https://twitter.com/makingbabyvav/status/1337114486516363267</t>
-  </si>
-  <si>
     <t>b'\\U0001f497'</t>
   </si>
   <si>
@@ -871,9 +730,6 @@
     <t>Ontario, Canada</t>
   </si>
   <si>
-    <t>https://twitter.com/makingbabyvav/status/1337076736123691011</t>
-  </si>
-  <si>
     <t>b'\\U0001f497 \\U0001f923 \\U0001f923 \\U0001f923'</t>
   </si>
   <si>
@@ -883,9 +739,6 @@
     <t>BKKtoNC</t>
   </si>
   <si>
-    <t>https://twitter.com/BKKtoNC/status/1337034470298443776</t>
-  </si>
-  <si>
     <t>b'Annual mammogram day for my remaining side. No scanxiety so far today. #getyourdamnmammogram #breastcancersurvivor #earlydetection'</t>
   </si>
   <si>
@@ -901,9 +754,6 @@
     <t>MrSmileEsq</t>
   </si>
   <si>
-    <t>https://twitter.com/MrSmileEsq/status/1336961332919357440</t>
-  </si>
-  <si>
     <t>b'\\U0001f62a'</t>
   </si>
   <si>
@@ -919,9 +769,6 @@
     <t>LisaGam2</t>
   </si>
   <si>
-    <t>https://twitter.com/LisaGam2/status/1336920248000372737</t>
-  </si>
-  <si>
     <t>b'#scanxiety'</t>
   </si>
   <si>
@@ -931,27 +778,18 @@
     <t>Manitoba</t>
   </si>
   <si>
-    <t>https://twitter.com/mssrfcali/status/1336909654761193472</t>
-  </si>
-  <si>
     <t>b'@Diana67411898 I\\u2019m glad you have great techs too! It makes a world of difference. Hope hour scans goes well too!! Sending positive vibes for you. Wish it was sooner for you too. Scanxiety is very real. '</t>
   </si>
   <si>
     <t>Diana67411898</t>
   </si>
   <si>
-    <t>https://twitter.com/Diana67411898/status/1336899929520762881</t>
-  </si>
-  <si>
     <t>b"@mssrfcali Ha! I just gave myself a new facial mask with aloe. Haven't done that in years.  My Petscan is next month.  Wish it was sooner.  Best wishes for a good outcome. I always get a little scanxiety but. 1/2 a Xanax really helps and the same techs are so sweet and funny. Love them."</t>
   </si>
   <si>
     <t>dustinschlong</t>
   </si>
   <si>
-    <t>https://twitter.com/dustinschlong/status/1336858480855064577</t>
-  </si>
-  <si>
     <t>b'\\U0001f643'</t>
   </si>
   <si>
@@ -970,18 +808,12 @@
     <t>Dewidogs</t>
   </si>
   <si>
-    <t>https://twitter.com/Dewidogs/status/1336833066187157508</t>
-  </si>
-  <si>
     <t>b'@mssrfcali Oh girl i am so happy its best case scenario! I totally get scanxiety! Geez you had to have been a nervous wreck when this all started.... breathe girl..... now you can focus on a plan a little more clearly'</t>
   </si>
   <si>
     <t>huckle3erry</t>
   </si>
   <si>
-    <t>https://twitter.com/huckle3erry/status/1337491366205657090</t>
-  </si>
-  <si>
     <t>b'@ogcancerpatient #Scanxiety. \\u2018Nuff said.'</t>
   </si>
   <si>
@@ -994,9 +826,6 @@
     <t>DrJohnTobben</t>
   </si>
   <si>
-    <t>https://twitter.com/DrJohnTobben/status/1337428007170965506</t>
-  </si>
-  <si>
     <t>b'Scanxiety was real for my 1 year follow up PET scan yesterday (systolic BP was 150s going into appointment to discuss results).\\n\\nBut scan came back completely clear. Been one hell of a last year, but I feel pretty much back to my normal self.'</t>
   </si>
   <si>
@@ -1009,9 +838,6 @@
     <t>LindstromCheryl</t>
   </si>
   <si>
-    <t>https://twitter.com/LindstromCheryl/status/1337405411570446337</t>
-  </si>
-  <si>
     <t>b"My annual brain/spine scans are stable!!! Whew!!!\\n\\nI always harbor a chunk of scan-anxiety until I get my NO's official reading. 8 years out and it never goes away.  #Ependymoma #BrainTumor"</t>
   </si>
   <si>
@@ -1030,9 +856,6 @@
     <t>sparklespreader</t>
   </si>
   <si>
-    <t>https://twitter.com/sparklespreader/status/1337386303755874304</t>
-  </si>
-  <si>
     <t>b'@mssrfcali Yes scanxiety is real!!!'</t>
   </si>
   <si>
@@ -1045,9 +868,6 @@
     <t>danridesmoto</t>
   </si>
   <si>
-    <t>https://twitter.com/danridesmoto/status/1337373223046897664</t>
-  </si>
-  <si>
     <t>b'\\U0001f602 \\U0001f602 \\U0001f602 \\U0001f4aa \\U0001f44c'</t>
   </si>
   <si>
@@ -1063,9 +883,6 @@
     <t>EJTHANSEN</t>
   </si>
   <si>
-    <t>https://twitter.com/EJTHANSEN/status/1337365327479529472</t>
-  </si>
-  <si>
     <t>b'\\U0001f44d \\U0001f4aa'</t>
   </si>
   <si>
@@ -1081,9 +898,6 @@
     <t>KateluckystarsH</t>
   </si>
   <si>
-    <t>https://twitter.com/KateluckystarsH/status/1337219287031959553</t>
-  </si>
-  <si>
     <t>b'\\U0001f64f \\U0001f64f \\U0001f64f \\U0001f497'</t>
   </si>
   <si>
@@ -1099,9 +913,6 @@
     <t>cancer,scanxiety</t>
   </si>
   <si>
-    <t>https://twitter.com/mssrfcali/status/1337204707807219713</t>
-  </si>
-  <si>
     <t>b'Just waiting for my PA to call me w/my PET scan results. They have it cuz I called an hour ago &amp;amp; the girl said they have it. \\nThe waiting part isn\\u2019t fun. Everyone who\\u2019s had scans before can relate. Scanxiety is very real.  #cancer #breastcancer #mbc #metastaticbreastcancer https://t.co/do60nNIAPf'</t>
   </si>
   <si>
@@ -1117,9 +928,6 @@
     <t>smudge4714</t>
   </si>
   <si>
-    <t>https://twitter.com/smudge4714/status/1337794840554311681</t>
-  </si>
-  <si>
     <t>b'\\U0001f91e'</t>
   </si>
   <si>
@@ -1141,9 +949,6 @@
     <t>malteseowner</t>
   </si>
   <si>
-    <t>https://twitter.com/malteseowner/status/1337573228978561025</t>
-  </si>
-  <si>
     <t>b'Anyone here on watch and wait for follicular NHL?  Scanxiety here. Had CT scan Monday;Televisit with oncologist this coming Monday. Good wishes please.'</t>
   </si>
   <si>
@@ -1156,9 +961,6 @@
     <t>iowanice_ish</t>
   </si>
   <si>
-    <t>https://twitter.com/iowanice_ish/status/1337562538377175040</t>
-  </si>
-  <si>
     <t>b'A dear friend and cousin is having some #Scanxiety from possible cancer recurrence. Please send some positive vibes to the docks in Puerto Vallarta Mexico.'</t>
   </si>
   <si>
@@ -1174,9 +976,6 @@
     <t>anguspratt</t>
   </si>
   <si>
-    <t>https://twitter.com/anguspratt/status/1338253342737240066</t>
-  </si>
-  <si>
     <t>b'Scanxiety is a common experience of cancer patients.  So the rules are "We\'re sitting around the kitchen table. It\'s a story and we have to talk about it."  Thank you Lacey, Canadian Cancer Society, and Mike Lang for the chance to tell this story. https://t.co/cZdOIkG5ml'</t>
   </si>
   <si>
@@ -1192,9 +991,6 @@
     <t>AileenSabira</t>
   </si>
   <si>
-    <t>https://twitter.com/AileenSabira/status/1338160393802420224</t>
-  </si>
-  <si>
     <t>b'\\U0001f923'</t>
   </si>
   <si>
@@ -1204,9 +1000,6 @@
     <t>b'VO Talent/Actor. Creative in Multiple Forms, Survivor, Activist, #LiA #LOVEinAction  (she/her) #VoteforLOVE #BidenHarris2020 #BlueWave #RESIST'</t>
   </si>
   <si>
-    <t>https://twitter.com/huckle3erry/status/1338604242429497347</t>
-  </si>
-  <si>
     <t>b'\\u2764'</t>
   </si>
   <si>
@@ -1216,9 +1009,6 @@
     <t>DiddyPersisted</t>
   </si>
   <si>
-    <t>https://twitter.com/DiddyPersisted/status/1338602292375736321</t>
-  </si>
-  <si>
     <t>b'In a week from today I take my baby boy in for scans to make sure he\\u2019s still cancer free. The anxiety is mounting. #anxiety #scanxiety #pediatriccancer #fuckcancer'</t>
   </si>
   <si>
@@ -1234,9 +1024,6 @@
     <t>ThanksCancer</t>
   </si>
   <si>
-    <t>https://twitter.com/ThanksCancer/status/1338486624645238785</t>
-  </si>
-  <si>
     <t>b'@amberress @CancerisanASS Wow \\u2014 merry Christmas? Your gift is scanxiety.'</t>
   </si>
   <si>
@@ -1249,9 +1036,6 @@
     <t>daniellemkali</t>
   </si>
   <si>
-    <t>https://twitter.com/daniellemkali/status/1338980621864022017</t>
-  </si>
-  <si>
     <t>b'@aurabogado Saw your tweet from 2018 and I felt sick then I saw it was from 2018. Sending love to you for the scanxiety and that scans are all good.'</t>
   </si>
   <si>
@@ -1264,9 +1048,6 @@
     <t>aurabogado</t>
   </si>
   <si>
-    <t>https://twitter.com/aurabogado/status/1338976905173688320</t>
-  </si>
-  <si>
     <t>b'Scanxiety is stubborn.'</t>
   </si>
   <si>
@@ -1276,9 +1057,6 @@
     <t>Oakland, CA</t>
   </si>
   <si>
-    <t>https://twitter.com/NateraOncology/status/1338964017725894657</t>
-  </si>
-  <si>
     <t>b"Don't miss the Surveillance and Scanxiety Webinar happening tomorrow at 4:30 PM PT! Register here: https://t.co/DS3MuVx6OD https://t.co/TbMwbGfOHx"</t>
   </si>
   <si>
@@ -1288,9 +1066,6 @@
     <t>mmejendouglas</t>
   </si>
   <si>
-    <t>https://twitter.com/mmejendouglas/status/1338867581088800769</t>
-  </si>
-  <si>
     <t>b'Post cancer scans and dealing with my Scanxiety.  What mindset helped me, and what didn\\u2019t?    https://t.co/6PZIsFirhQ #bcsm #breastcancer #cancer  https://t.co/6PZIsFirhQ'</t>
   </si>
   <si>
@@ -1306,9 +1081,6 @@
     <t>https://t.co/6PZIsFirhQhttps://t.co/6PZIsFirh</t>
   </si>
   <si>
-    <t>https://twitter.com/petctacademy/status/1338793468357996546</t>
-  </si>
-  <si>
     <t>b"Every Tuesday, the PET-CT Academy patient representative @KateNCUK is providing us with another tip to help with #Scanxiety. This time, it's about how exercise can help put you at ease, both physically and emotionally. \\n\\n#tiptuesday @ncukcharity @macmillancancer @AllianceMedica1 https://t.co/DGN3afY2Bn"</t>
   </si>
   <si>
@@ -1321,9 +1093,6 @@
     <t>AmanWadhwaMD</t>
   </si>
   <si>
-    <t>https://twitter.com/AmanWadhwaMD/status/1339316034868817932</t>
-  </si>
-  <si>
     <t>b'\\U0001f614'</t>
   </si>
   <si>
@@ -1339,9 +1108,6 @@
     <t>absotTC</t>
   </si>
   <si>
-    <t>https://twitter.com/absotTC/status/1339314330387492866</t>
-  </si>
-  <si>
     <t>b'In five words.... "Another set of clean scans."\\n\\nIn eight words... "Another set of clean scans, with minimal scanxiety."\\n\\nIn 807 words... https://t.co/ElNkcneK17\\n\\n#cancer https://t.co/EvYklQkmgN'</t>
   </si>
   <si>
@@ -1363,9 +1129,6 @@
     <t>ClareZimMD</t>
   </si>
   <si>
-    <t>https://twitter.com/ClareZimMD/status/1339310051387969542</t>
-  </si>
-  <si>
     <t>b'Scanxiety is real for patients and providers. Sorry but not sorry to all the #radiologists I call immediately after my patients\\u2019 scans for a prelim.... #scanxiety #iknowiannoyyou'</t>
   </si>
   <si>
@@ -1381,9 +1144,6 @@
     <t>brownbeansprout</t>
   </si>
   <si>
-    <t>https://twitter.com/brownbeansprout/status/1339094607137820677</t>
-  </si>
-  <si>
     <t>b'Scanxiety is real tonight, yall. #survivingstage4 #liver #clinicaltrials https://t.co/xShjsGZW8r'</t>
   </si>
   <si>
@@ -1405,9 +1165,6 @@
     <t>thompson_shawna</t>
   </si>
   <si>
-    <t>https://twitter.com/thompson_shawna/status/1339674184444743683</t>
-  </si>
-  <si>
     <t>b'@kayleighmcenany @KFILE Praying for your warrior. I have one also. Scanxiety is coming up. Scan next week. Pray for the both of us and pray for more pediatric cancer funding #morethan4 https://t.co/a6IMVFkgL1'</t>
   </si>
   <si>
@@ -1429,9 +1186,6 @@
     <t>CatalystHCoach</t>
   </si>
   <si>
-    <t>https://twitter.com/CatalystHCoach/status/1339663429959901190</t>
-  </si>
-  <si>
     <t>b'Took my @KayYowFund sisterhood along on my mammogram today by wearing our @Nike pink hair tie. It\\u2019s a great conversation starter &amp;amp; often allows me to share encouragement with someone nervous about their own scans. #scanxiety #cancer #breastcancer #warrior #healthy #shareyourstory https://t.co/aeCHx2nyGA'</t>
   </si>
   <si>
@@ -1453,9 +1207,6 @@
     <t>LUNGevity</t>
   </si>
   <si>
-    <t>https://twitter.com/LUNGevity/status/1339571226415607814</t>
-  </si>
-  <si>
     <t>b'#scanxiety: the apprehension a patient feels in the waiting period before and after a medical exam or scan. Our community shares their tips on how they learned to manage their worry and stress about scans: https://t.co/O8cmxPpDdr #LCSM #lungcancer https://t.co/28oWpjzwXF'</t>
   </si>
   <si>
@@ -1477,9 +1228,6 @@
     <t>Julias_House</t>
   </si>
   <si>
-    <t>https://twitter.com/Julias_House/status/1339555970389819392</t>
-  </si>
-  <si>
     <t>b"Scanxiety - Ellie has a scan every 3 months to check that her cancer hasn't come back, and with one of the scans falling just before Christmas, everything festive is put on hold... \\nDonate to our Christmas appeal here: https://t.co/rM60CzrHfj https://t.co/lJM2ciy9x3"</t>
   </si>
   <si>
@@ -1495,9 +1243,6 @@
     <t>https://t.co/rM60CzrHfjhttps://t.co/lJM2ciy9x</t>
   </si>
   <si>
-    <t>https://twitter.com/290727/status/1339517348668174336</t>
-  </si>
-  <si>
     <t>b'@nettiewettie Yes, still get scanxiety though.'</t>
   </si>
   <si>
@@ -1510,9 +1255,6 @@
     <t>steeljammn</t>
   </si>
   <si>
-    <t>https://twitter.com/steeljammn/status/1339400930836369411</t>
-  </si>
-  <si>
     <t>b'@Indefatigabl_ @LibbyMbc @warriormegsie Same. My onc said regular scans vs. only scanning if symptoms shows no difference in length of survival. And you get to deal with scanxiety in the former. I\\u2019m ok with no scans. I\\u2019m already full of anxiety with every new pain or bump.'</t>
   </si>
   <si>
@@ -1522,9 +1264,6 @@
     <t>DeniseAkky</t>
   </si>
   <si>
-    <t>https://twitter.com/DeniseAkky/status/1339993158583799809</t>
-  </si>
-  <si>
     <t>b"@busterknighty69 Feel for you my love. My scanxiety is through the roof (my regular CT scan tomorrow). We've got to keep fighting."</t>
   </si>
   <si>
@@ -1537,9 +1276,6 @@
     <t>filmedliveMT</t>
   </si>
   <si>
-    <t>https://twitter.com/filmedliveMT/status/1339927464919912450</t>
-  </si>
-  <si>
     <t>b"@AdamLenson @ALPmusicals Scanxiety is no joke. Sending good vibes, and can't wait for #SignalBoost!"</t>
   </si>
   <si>
@@ -1552,9 +1288,6 @@
     <t>redwritergirl59</t>
   </si>
   <si>
-    <t>https://twitter.com/redwritergirl59/status/1339861169864118272</t>
-  </si>
-  <si>
     <t>b'Off to have CT scan later, first one since May, got scan anxiety already, hoping results have remained steady. #livingwithcancer'</t>
   </si>
   <si>
@@ -1570,9 +1303,6 @@
     <t>Beatthemedian</t>
   </si>
   <si>
-    <t>https://twitter.com/Beatthemedian/status/1339824888480198659</t>
-  </si>
-  <si>
     <t>b'@GemsWife3 Good luck. Scanxiety is the absolute worst. I hope you get great results \\U0001f91e https://t.co/d5eiFGA5vS'</t>
   </si>
   <si>
@@ -1591,9 +1321,6 @@
     <t>HerrickHlthLib</t>
   </si>
   <si>
-    <t>https://twitter.com/HerrickHlthLib/status/1339814508731121665</t>
-  </si>
-  <si>
     <t>b"Dec. 18 @sharphealthcare's Cancer Center will hold its Scanxiety Workshop online from 10-11:30 am. Visit https://t.co/U12jzEmLEQ for more info &amp;amp; to register.\\n\\n@HerrickHlthLib      @GrossmontHealth"</t>
   </si>
   <si>
@@ -1609,9 +1336,6 @@
     <t>tryingtolive73</t>
   </si>
   <si>
-    <t>https://twitter.com/tryingtolive73/status/1339781391089807361</t>
-  </si>
-  <si>
     <t>b'Husband has 3 month scans in the morning. Scan anxiety is overtaking us both but we know who holds tomorrow. 29 years to this wonderful man &amp;amp; I hate to c him sick. I pray God destroyed the remaining cancer in his lungs. We need him here with us , CANCER SUCKS! prayers please!'</t>
   </si>
   <si>
@@ -1621,9 +1345,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>https://twitter.com/Willowsrainbow/status/1340216430759981058</t>
-  </si>
-  <si>
     <t>b'https://t.co/Ov5hETGJal\\n\\nCheck out our latest Instagram post with tips from our followers on dealing with scanxiety. https://t.co/F1J4Gips3q'</t>
   </si>
   <si>
@@ -1636,9 +1357,6 @@
     <t>amberress</t>
   </si>
   <si>
-    <t>https://twitter.com/amberress/status/1340722282466045954</t>
-  </si>
-  <si>
     <t>b"Where's my cancer friends at...scanxiety in full fucking force today @FightCRC @ThanksCancer @CancerisanASS @CCAlliance"</t>
   </si>
   <si>
@@ -1651,9 +1369,6 @@
     <t>Weldon_GIST</t>
   </si>
   <si>
-    <t>https://twitter.com/Weldon_GIST/status/1340692937634689034</t>
-  </si>
-  <si>
     <t>b'Scanxiety - without the scan. Been having some throat trouble, and concerned it could be related to some thickening of the oesophagus, that was picked up a few years ago - possibly a result of sever acid reflux that was a problem for a while after my gastrectomy.'</t>
   </si>
   <si>
@@ -1663,9 +1378,6 @@
     <t>StefaniaErazo</t>
   </si>
   <si>
-    <t>https://twitter.com/StefaniaErazo/status/1341132087227797507</t>
-  </si>
-  <si>
     <t>b'Son pacientes que presentan todos los s\\xedntomas: scanxiety (terror a los resultados de las pruebas: antes, durante y despu\\xe9s de las mismas), sabores que recuerdan a las quimioterapias, ruidos que asocian con s\\xedntomas molestos,'</t>
   </si>
   <si>
@@ -1678,9 +1390,6 @@
     <t>FightCRC</t>
   </si>
   <si>
-    <t>https://twitter.com/FightCRC/status/1341025592448311297</t>
-  </si>
-  <si>
     <t>b'@amberress @ThanksCancer @CancerisanASS @CCAlliance Sending lots of love and strength your way, Amber! Here are our top 5 Tips to Minimize Scanxiety... Hope it helps! \\n\\nhttps://t.co/7ozfccRFfj'</t>
   </si>
   <si>
@@ -1696,9 +1405,6 @@
     <t>happynootyear</t>
   </si>
   <si>
-    <t>https://twitter.com/happynootyear/status/1340898977810669569</t>
-  </si>
-  <si>
     <t>b'Scanxiety is real why\\u2019d they have to do me like this right before christmas lol'</t>
   </si>
   <si>
@@ -1708,9 +1414,6 @@
     <t>Madison, WI</t>
   </si>
   <si>
-    <t>https://twitter.com/mmejendouglas/status/1341530442105810945</t>
-  </si>
-  <si>
     <t>b'I experienced scanxiety during my follow up imaging after breast cancer treatment.  Here is what it was like for me. https://t.co/6PZIsFA2Gq #breastcancer #scanxiety #cancer https://t.co/1Uwy3OAMLw'</t>
   </si>
   <si>
@@ -1726,9 +1429,6 @@
     <t>Binghams_</t>
   </si>
   <si>
-    <t>https://twitter.com/Binghams_/status/1341492853726269440</t>
-  </si>
-  <si>
     <t>b'We get to see baby boy tomorrow, so of course the scanxiety is setting in. Positive thoughts and vibes are always appreciated \\u2764\\ufe0f'</t>
   </si>
   <si>
@@ -1738,9 +1438,6 @@
     <t>richardfbarnes</t>
   </si>
   <si>
-    <t>https://twitter.com/richardfbarnes/status/1341443453796888581</t>
-  </si>
-  <si>
     <t>b'Well, got my next PET scan scheduled for Jan 4. Please pray I can get through the holidays without allowing the scan anxiety become a hidrance to my family enjoying the holiday....and for good results. Thank you.'</t>
   </si>
   <si>
@@ -1750,9 +1447,6 @@
     <t>Maryland</t>
   </si>
   <si>
-    <t>https://twitter.com/petctacademy/status/1341405672550920194</t>
-  </si>
-  <si>
     <t>b"It's #TipTuesday, and our patient representative @KateNCUK gives us more practical tips to help #patients with #Scanxiety, and this time it's a reminder to ask for support when you need it. People want to help.\\n\\n#PETCT @macmillancancer @ncukcharity https://t.co/zSCbUxjC28"</t>
   </si>
   <si>
@@ -1768,9 +1462,6 @@
     <t>KeepCancrClassy</t>
   </si>
   <si>
-    <t>https://twitter.com/KeepCancrClassy/status/1341370911258267648</t>
-  </si>
-  <si>
     <t>b'@amberress @FightCRC @ThanksCancer @CancerisanASS @CCAlliance Don\\u2019t fear what you don\\u2019t really know! This is my scanxiety theme song: https://t.co/e6io3dhjNA'</t>
   </si>
   <si>
@@ -1783,15 +1474,9 @@
     <t>KelleherMairead</t>
   </si>
   <si>
-    <t>https://twitter.com/KelleherMairead/status/1341222136317435904</t>
-  </si>
-  <si>
     <t>b'@eamonlynch @TMSGolfweek Scanxiety is real. \\U0001f91e'</t>
   </si>
   <si>
-    <t>https://twitter.com/anguspratt/status/1341847828113412096</t>
-  </si>
-  <si>
     <t>b'I finally got the writeup done on the production of the digital story. Scanxiety https://t.co/qxxV5j9uPz'</t>
   </si>
   <si>
@@ -1801,9 +1486,6 @@
     <t>ChiSyndicalist</t>
   </si>
   <si>
-    <t>https://twitter.com/ChiSyndicalist/status/1341776014750441482</t>
-  </si>
-  <si>
     <t>b'I am 21 year-old grown ass man. Why am I still scared of the doctors office. Never have felt more weak than being mentally defeated by CT scan anxiety.'</t>
   </si>
   <si>
@@ -1816,9 +1498,6 @@
     <t>LungCancerHalfL</t>
   </si>
   <si>
-    <t>https://twitter.com/LungCancerHalfL/status/1341768308207595523</t>
-  </si>
-  <si>
     <t>b'What could make my 2020 scan week even more special?  Let\\u2019s top it off with a root canal!  Looking forward to Christmas, then results on Monday.  #lcsm #scanxiety #MerryChristmas #TheThrillOfHope #2020out'</t>
   </si>
   <si>
@@ -1831,27 +1510,18 @@
     <t>LungFighter</t>
   </si>
   <si>
-    <t>https://twitter.com/LungFighter/status/1341731905063038976</t>
-  </si>
-  <si>
     <t>b'@MattLoede Continued prayers for clean scans! I also have mine coming up mid January and my scanxiety as some of us call it is starting to set in!'</t>
   </si>
   <si>
     <t>b'Husband, Father, Clevelander. 16 year lung cancer fighter. OSU dad. Car and baseball nut. Love sports and music. IFSHA Friesian horse owner.'</t>
   </si>
   <si>
-    <t>https://twitter.com/mmejendouglas/status/1341536978072862720</t>
-  </si>
-  <si>
     <t>b'@JacqChartier Thank you so much for sharing!  Isn\\u2019t the anxiety we feel difficult? #scanxiety'</t>
   </si>
   <si>
     <t>JacqChartier</t>
   </si>
   <si>
-    <t>https://twitter.com/JacqChartier/status/1341536675751550976</t>
-  </si>
-  <si>
     <t>b'This is a great blog by breast cancer survivor @mmejendouglas I\\u2019ve been in remission from my ovarian cancer for 9 years, but I still suffer a lot of anxiety whenever I go for a scan. #ovariancancer #cancer #scanxiety https://t.co/LNxBnxvZRb'</t>
   </si>
   <si>
@@ -1870,9 +1540,6 @@
     <t>jonathanbreslau</t>
   </si>
   <si>
-    <t>https://twitter.com/jonathanbreslau/status/1341534847064371200</t>
-  </si>
-  <si>
     <t>b'#Scanxiety Over My One-Year Imaging - Dealing With The Emotions Again \\u2066@RadiologyACR\\u2069  https://t.co/UsZPdALKPT'</t>
   </si>
   <si>
@@ -1888,16 +1555,10 @@
     <t>montigirl</t>
   </si>
   <si>
-    <t>https://twitter.com/montigirl/status/1341897253015982081</t>
-  </si>
-  <si>
     <t>b'@psychpolis I always have scanxiety because of the tumour so I am very grateful to have one yearly however I do blubber like a baby both before and afterwards. Medical teams are so understanding and comforting. I hope it all works  out and you feel better soon-x-'</t>
   </si>
   <si>
     <t>b"PhD candidate; brain tumour survivor; Research interests: early childhood, professional practice, children's rights &amp; play. Tweets = personal opinions. She /her"</t>
-  </si>
-  <si>
-    <t>https://twitter.com/Jerrymunkee/status/1342940214747148290</t>
   </si>
   <si>
     <t>b'@nadinevdVelde Scanxiety. I understand.'</t>
@@ -2285,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S172"/>
+  <dimension ref="B1:R172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,55 +1957,51 @@
     <col min="5" max="5" width="82.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="str">
-        <f t="array" ref="F1">HYPERLINK(F2:F114)</f>
-        <v>https://twitter.com/Kelly_S_Irvin/status/1334591104587620354</v>
+      <c r="F1" t="s">
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
         <v>5</v>
       </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>44168</v>
       </c>
@@ -2355,19 +2012,19 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
@@ -2391,404 +2048,374 @@
       <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>44168</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>44168</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="N4" t="s">
         <v>34</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
       <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>44168</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>44168</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>44169</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
-        <v>50</v>
+      <c r="F7">
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>44169</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
-        <v>56</v>
+      <c r="F8">
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
         <v>7</v>
       </c>
-      <c r="J8" t="s">
-        <v>17</v>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44169</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
-        <v>60</v>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>44169</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
-        <v>66</v>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
       </c>
       <c r="L10" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>44169</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s">
-        <v>73</v>
+      <c r="F11">
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>65</v>
       </c>
       <c r="L11" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>44169</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s">
-        <v>78</v>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2796,83 +2423,77 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="N12" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>44170</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="s">
-        <v>83</v>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M13" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="O13" t="s">
-        <v>87</v>
-      </c>
-      <c r="P13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="R13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>44170</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" t="s">
-        <v>90</v>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2880,95 +2501,89 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>78</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="O14" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="P14" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="Q14" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="R14" t="s">
-        <v>95</v>
-      </c>
-      <c r="S14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>44170</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="s">
-        <v>97</v>
+      <c r="F15">
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
         <v>2</v>
       </c>
-      <c r="J15" t="s">
-        <v>17</v>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>84</v>
       </c>
       <c r="L15" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="M15" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="N15" t="s">
-        <v>92</v>
-      </c>
-      <c r="O15" t="s">
-        <v>93</v>
+        <v>80</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>85</v>
       </c>
       <c r="R15" t="s">
-        <v>99</v>
-      </c>
-      <c r="S15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>44170</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
-        <v>102</v>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2976,527 +2591,491 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>88</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="M16" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="N16" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="O16" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="P16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>44170</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F17" t="s">
-        <v>108</v>
+      <c r="F17">
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
         <v>14</v>
       </c>
-      <c r="J17" t="s">
-        <v>17</v>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>93</v>
       </c>
       <c r="L17" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="M17" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="N17" t="s">
-        <v>110</v>
-      </c>
-      <c r="O17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>44171</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F18" t="s">
-        <v>112</v>
+      <c r="F18">
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
+        <v>96</v>
       </c>
       <c r="L18" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="N18" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="O18" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="P18" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="Q18" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="R18" t="s">
-        <v>115</v>
-      </c>
-      <c r="S18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>44172</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" t="s">
-        <v>118</v>
+      <c r="F19">
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
         <v>2</v>
       </c>
-      <c r="J19" t="s">
-        <v>17</v>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>101</v>
       </c>
       <c r="L19" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="O19" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="P19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>44172</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F20" t="s">
-        <v>123</v>
+      <c r="F20">
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
         <v>85</v>
       </c>
-      <c r="J20" t="s">
-        <v>17</v>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>105</v>
       </c>
       <c r="L20" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
-      </c>
-      <c r="O20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>44172</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F21" t="s">
-        <v>128</v>
+      <c r="F21">
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
         <v>2</v>
       </c>
-      <c r="J21" t="s">
-        <v>17</v>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>109</v>
       </c>
       <c r="L21" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="N21" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="O21" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="P21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>44172</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" t="s">
-        <v>133</v>
+      <c r="F22">
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
         <v>8</v>
       </c>
-      <c r="J22" t="s">
-        <v>17</v>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>113</v>
       </c>
       <c r="L22" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="N22" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="O22" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="P22" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="Q22" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="R22" t="s">
-        <v>138</v>
-      </c>
-      <c r="S22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>44172</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F23" t="s">
-        <v>141</v>
+      <c r="F23">
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
         <v>23</v>
       </c>
-      <c r="J23" t="s">
-        <v>17</v>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>120</v>
       </c>
       <c r="L23" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="M23" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="N23" t="s">
-        <v>143</v>
-      </c>
-      <c r="O23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>44172</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F24" t="s">
-        <v>145</v>
+      <c r="F24">
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
         <v>2</v>
       </c>
-      <c r="J24" t="s">
-        <v>17</v>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>123</v>
       </c>
       <c r="L24" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="N24" t="s">
-        <v>143</v>
-      </c>
-      <c r="O24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>44172</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" t="s">
-        <v>148</v>
+      <c r="F25">
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
         <v>5</v>
       </c>
-      <c r="J25" t="s">
-        <v>149</v>
+      <c r="I25" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" t="s">
+        <v>126</v>
       </c>
       <c r="L25" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="M25" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="N25" t="s">
-        <v>151</v>
-      </c>
-      <c r="O25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>44172</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F26" t="s">
-        <v>154</v>
+      <c r="F26">
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
         <v>4</v>
       </c>
-      <c r="J26" t="s">
-        <v>17</v>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
+        <v>130</v>
       </c>
       <c r="L26" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="M26" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="N26" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="O26" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="P26" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>44172</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F27" t="s">
-        <v>159</v>
+      <c r="F27">
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>4</v>
-      </c>
-      <c r="I27">
         <v>35</v>
       </c>
-      <c r="J27" t="s">
-        <v>17</v>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
+        <v>134</v>
       </c>
       <c r="L27" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="M27" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="N27" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="O27" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="P27" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="Q27" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="R27" t="s">
-        <v>164</v>
-      </c>
-      <c r="S27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>44172</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" t="s">
-        <v>167</v>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3504,344 +3083,320 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>17</v>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>141</v>
       </c>
       <c r="L28" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="P28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>44173</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F29" t="s">
-        <v>172</v>
+      <c r="F29">
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
         <v>3</v>
       </c>
-      <c r="J29" t="s">
-        <v>17</v>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
+        <v>145</v>
       </c>
       <c r="L29" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="M29" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="N29" t="s">
-        <v>174</v>
-      </c>
-      <c r="O29" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>176</v>
-      </c>
-      <c r="S29" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="P29" t="s">
+        <v>148</v>
+      </c>
+      <c r="R29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>44173</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F30" t="s">
-        <v>179</v>
+      <c r="F30">
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="I30">
         <v>6</v>
       </c>
-      <c r="J30" t="s">
-        <v>17</v>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s">
+        <v>151</v>
       </c>
       <c r="L30" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>19</v>
-      </c>
-      <c r="N30" t="s">
-        <v>181</v>
+        <v>152</v>
+      </c>
+      <c r="P30" t="s">
+        <v>153</v>
       </c>
       <c r="Q30" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="R30" t="s">
-        <v>183</v>
-      </c>
-      <c r="S30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>44173</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" t="s">
-        <v>186</v>
+      <c r="F31">
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
         <v>7</v>
       </c>
-      <c r="J31" t="s">
-        <v>17</v>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
+        <v>157</v>
       </c>
       <c r="L31" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="M31" t="s">
-        <v>85</v>
-      </c>
-      <c r="N31" t="s">
-        <v>188</v>
-      </c>
-      <c r="P31" t="s">
-        <v>31</v>
-      </c>
-      <c r="S31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="O31" t="s">
+        <v>29</v>
+      </c>
+      <c r="R31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>44173</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F32" t="s">
-        <v>191</v>
+      <c r="F32">
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
         <v>3</v>
       </c>
-      <c r="J32" t="s">
-        <v>17</v>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" t="s">
+        <v>161</v>
       </c>
       <c r="L32" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="N32" t="s">
-        <v>193</v>
-      </c>
-      <c r="O32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>44174</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F33" t="s">
-        <v>196</v>
+      <c r="F33">
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>3</v>
-      </c>
-      <c r="I33">
-        <v>16</v>
-      </c>
-      <c r="J33" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" t="s">
+        <v>165</v>
       </c>
       <c r="L33" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="M33" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="N33" t="s">
-        <v>198</v>
-      </c>
-      <c r="O33" t="s">
-        <v>199</v>
+        <v>167</v>
+      </c>
+      <c r="P33" t="s">
+        <v>168</v>
       </c>
       <c r="Q33" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="R33" t="s">
-        <v>201</v>
-      </c>
-      <c r="S33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>44174</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" t="s">
-        <v>204</v>
+      <c r="F34">
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>4</v>
-      </c>
-      <c r="I34">
         <v>10</v>
       </c>
-      <c r="J34" t="s">
-        <v>17</v>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s">
+        <v>172</v>
       </c>
       <c r="L34" t="s">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="M34" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="N34" t="s">
-        <v>206</v>
-      </c>
-      <c r="O34" t="s">
-        <v>207</v>
+        <v>174</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>175</v>
       </c>
       <c r="R34" t="s">
-        <v>208</v>
-      </c>
-      <c r="S34" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>44174</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F35" t="s">
-        <v>211</v>
+      <c r="F35">
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
         <v>5</v>
       </c>
-      <c r="J35" t="s">
-        <v>212</v>
+      <c r="I35" t="s">
+        <v>178</v>
+      </c>
+      <c r="K35" t="s">
+        <v>179</v>
       </c>
       <c r="L35" t="s">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="M35" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="N35" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="O35" t="s">
-        <v>215</v>
-      </c>
-      <c r="P35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>44174</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F36" t="s">
-        <v>217</v>
+      <c r="F36">
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3849,296 +3404,275 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>17</v>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" t="s">
+        <v>183</v>
       </c>
       <c r="L36" t="s">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="M36" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="N36" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="O36" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="P36" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>44174</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" t="s">
-        <v>223</v>
+      <c r="F37">
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
         <v>8</v>
       </c>
-      <c r="J37" t="s">
-        <v>17</v>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s">
+        <v>188</v>
       </c>
       <c r="L37" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="M37" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="N37" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="O37" t="s">
-        <v>226</v>
-      </c>
-      <c r="P37" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>191</v>
       </c>
       <c r="R37" t="s">
-        <v>227</v>
-      </c>
-      <c r="S37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>44174</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F38" t="s">
-        <v>230</v>
+      <c r="F38">
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
         <v>6</v>
       </c>
-      <c r="J38" t="s">
-        <v>17</v>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s">
+        <v>194</v>
       </c>
       <c r="L38" t="s">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="M38" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="N38" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="O38" t="s">
-        <v>233</v>
-      </c>
-      <c r="P38" t="s">
-        <v>31</v>
-      </c>
-      <c r="S38" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="R38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>44174</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F39" t="s">
-        <v>236</v>
+      <c r="F39">
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" t="s">
+        <v>199</v>
       </c>
       <c r="L39" t="s">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="N39" t="s">
-        <v>238</v>
-      </c>
-      <c r="O39" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>44174</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" t="s">
-        <v>241</v>
+      <c r="F40">
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
+        <v>203</v>
       </c>
       <c r="L40" t="s">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="N40" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="O40" t="s">
-        <v>244</v>
-      </c>
-      <c r="P40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>44174</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F41" t="s">
-        <v>246</v>
+      <c r="F41">
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s">
+        <v>207</v>
       </c>
       <c r="L41" t="s">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="M41" t="s">
-        <v>19</v>
-      </c>
-      <c r="N41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>44174</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F42" t="s">
-        <v>249</v>
+      <c r="F42">
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
+        <v>209</v>
       </c>
       <c r="L42" t="s">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="M42" t="s">
-        <v>19</v>
-      </c>
-      <c r="N42" t="s">
-        <v>251</v>
+        <v>210</v>
+      </c>
+      <c r="O42" t="s">
+        <v>29</v>
       </c>
       <c r="P42" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>44174</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" t="s">
-        <v>253</v>
+      <c r="F43">
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4146,41 +3680,38 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>254</v>
+      <c r="I43" t="s">
+        <v>212</v>
+      </c>
+      <c r="K43" t="s">
+        <v>213</v>
       </c>
       <c r="L43" t="s">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="M43" t="s">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="N43" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="O43" t="s">
-        <v>257</v>
-      </c>
-      <c r="P43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>44174</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F44" t="s">
-        <v>259</v>
+      <c r="F44">
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4188,371 +3719,344 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44" t="s">
-        <v>17</v>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" t="s">
+        <v>217</v>
       </c>
       <c r="L44" t="s">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="M44" t="s">
-        <v>19</v>
-      </c>
-      <c r="N44" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>44175</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F45" t="s">
-        <v>263</v>
+      <c r="F45">
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H45">
-        <v>4</v>
-      </c>
-      <c r="I45">
         <v>12</v>
       </c>
-      <c r="J45" t="s">
-        <v>17</v>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" t="s">
+        <v>220</v>
       </c>
       <c r="L45" t="s">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="M45" t="s">
-        <v>19</v>
-      </c>
-      <c r="N45" t="s">
-        <v>265</v>
+        <v>221</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>222</v>
       </c>
       <c r="R45" t="s">
-        <v>266</v>
-      </c>
-      <c r="S45" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>44175</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" t="s">
-        <v>269</v>
+      <c r="F46">
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H46">
-        <v>5</v>
-      </c>
-      <c r="I46">
         <v>10</v>
       </c>
-      <c r="J46" t="s">
-        <v>17</v>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="s">
+        <v>225</v>
       </c>
       <c r="L46" t="s">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="M46" t="s">
-        <v>19</v>
-      </c>
-      <c r="N46" t="s">
-        <v>271</v>
+        <v>226</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>227</v>
       </c>
       <c r="R46" t="s">
-        <v>272</v>
-      </c>
-      <c r="S46" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>44175</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F47" t="s">
-        <v>275</v>
+      <c r="F47">
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" t="s">
+        <v>230</v>
       </c>
       <c r="L47" t="s">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="M47" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="N47" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="O47" t="s">
-        <v>278</v>
-      </c>
-      <c r="P47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>44175</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F48" t="s">
-        <v>280</v>
+      <c r="F48">
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>281</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>234</v>
+      </c>
+      <c r="K48" t="s">
+        <v>235</v>
       </c>
       <c r="L48" t="s">
-        <v>282</v>
+        <v>18</v>
       </c>
       <c r="M48" t="s">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="N48" t="s">
-        <v>283</v>
-      </c>
-      <c r="O48" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>44175</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" t="s">
-        <v>285</v>
+      <c r="F49">
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>286</v>
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>238</v>
+      </c>
+      <c r="K49" t="s">
+        <v>239</v>
       </c>
       <c r="L49" t="s">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="M49" t="s">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="N49" t="s">
-        <v>283</v>
-      </c>
-      <c r="O49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>44175</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F50" t="s">
-        <v>289</v>
+      <c r="F50">
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
         <v>11</v>
       </c>
-      <c r="J50" t="s">
-        <v>17</v>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>241</v>
       </c>
       <c r="L50" t="s">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="M50" t="s">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="N50" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="O50" t="s">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="P50" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>44175</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F51" t="s">
-        <v>295</v>
+      <c r="F51">
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
         <v>4</v>
       </c>
-      <c r="J51" t="s">
-        <v>296</v>
+      <c r="I51" t="s">
+        <v>246</v>
+      </c>
+      <c r="K51" t="s">
+        <v>247</v>
       </c>
       <c r="L51" t="s">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="M51" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="N51" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="O51" t="s">
-        <v>299</v>
-      </c>
-      <c r="P51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>44175</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" t="s">
-        <v>301</v>
+      <c r="F52">
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
+        <v>251</v>
       </c>
       <c r="L52" t="s">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="M52" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="N52" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="O52" t="s">
-        <v>304</v>
+        <v>29</v>
       </c>
       <c r="P52" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>44175</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F53" t="s">
-        <v>305</v>
+      <c r="F53">
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4560,545 +4064,506 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53" t="s">
-        <v>74</v>
+      <c r="I53" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" t="s">
+        <v>254</v>
       </c>
       <c r="L53" t="s">
-        <v>306</v>
+        <v>18</v>
       </c>
       <c r="M53" t="s">
-        <v>19</v>
-      </c>
-      <c r="N53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>44175</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F54" t="s">
-        <v>308</v>
+      <c r="F54">
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" t="s">
+        <v>256</v>
       </c>
       <c r="L54" t="s">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="M54" t="s">
-        <v>19</v>
-      </c>
-      <c r="N54" t="s">
-        <v>17</v>
-      </c>
-      <c r="P54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="O54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>44175</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" t="s">
-        <v>311</v>
+      <c r="F55">
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55" t="s">
-        <v>312</v>
+      <c r="I55" t="s">
+        <v>258</v>
+      </c>
+      <c r="K55" t="s">
+        <v>259</v>
       </c>
       <c r="L55" t="s">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="M55" t="s">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="N55" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="O55" t="s">
-        <v>315</v>
-      </c>
-      <c r="P55" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>44175</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F56" t="s">
-        <v>318</v>
+      <c r="F56">
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" t="s">
+        <v>264</v>
       </c>
       <c r="L56" t="s">
-        <v>319</v>
+        <v>18</v>
       </c>
       <c r="M56" t="s">
-        <v>19</v>
-      </c>
-      <c r="N56" t="s">
-        <v>17</v>
-      </c>
-      <c r="P56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="O56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>44176</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F57" t="s">
-        <v>321</v>
+      <c r="F57">
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" t="s">
+        <v>266</v>
       </c>
       <c r="L57" t="s">
-        <v>322</v>
+        <v>18</v>
       </c>
       <c r="M57" t="s">
-        <v>19</v>
+        <v>267</v>
       </c>
       <c r="N57" t="s">
-        <v>323</v>
-      </c>
-      <c r="O57" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="P57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>44176</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" t="s">
-        <v>326</v>
+      <c r="F58">
+        <v>10</v>
       </c>
       <c r="G58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
         <v>121</v>
       </c>
-      <c r="J58" t="s">
-        <v>17</v>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" t="s">
+        <v>270</v>
       </c>
       <c r="L58" t="s">
-        <v>327</v>
+        <v>18</v>
       </c>
       <c r="M58" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="N58" t="s">
-        <v>328</v>
-      </c>
-      <c r="O58" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>44176</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F59" t="s">
-        <v>331</v>
+      <c r="F59">
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
         <v>12</v>
       </c>
-      <c r="J59" t="s">
-        <v>17</v>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" t="s">
+        <v>274</v>
       </c>
       <c r="L59" t="s">
-        <v>332</v>
+        <v>18</v>
       </c>
       <c r="M59" t="s">
-        <v>19</v>
+        <v>275</v>
       </c>
       <c r="N59" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="O59" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="P59" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>44176</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F60" t="s">
-        <v>338</v>
+      <c r="F60">
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" t="s">
+        <v>280</v>
       </c>
       <c r="L60" t="s">
-        <v>339</v>
+        <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>19</v>
+        <v>281</v>
       </c>
       <c r="N60" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="O60" t="s">
-        <v>341</v>
-      </c>
-      <c r="P60" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>44176</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" t="s">
-        <v>343</v>
+      <c r="F61">
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>344</v>
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>284</v>
+      </c>
+      <c r="K61" t="s">
+        <v>285</v>
       </c>
       <c r="L61" t="s">
-        <v>345</v>
+        <v>18</v>
       </c>
       <c r="M61" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="N61" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="O61" t="s">
-        <v>347</v>
-      </c>
-      <c r="P61" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>44176</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F62" t="s">
-        <v>349</v>
+      <c r="F62">
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>350</v>
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>289</v>
+      </c>
+      <c r="K62" t="s">
+        <v>290</v>
       </c>
       <c r="L62" t="s">
-        <v>351</v>
+        <v>18</v>
       </c>
       <c r="M62" t="s">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="N62" t="s">
-        <v>352</v>
-      </c>
-      <c r="O62" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>44176</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F63" t="s">
-        <v>355</v>
+      <c r="F63">
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63" t="s">
-        <v>356</v>
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>294</v>
+      </c>
+      <c r="K63" t="s">
+        <v>295</v>
       </c>
       <c r="L63" t="s">
-        <v>357</v>
+        <v>18</v>
       </c>
       <c r="M63" t="s">
-        <v>19</v>
+        <v>296</v>
       </c>
       <c r="N63" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="O63" t="s">
-        <v>359</v>
+        <v>29</v>
       </c>
       <c r="P63" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>44176</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" t="s">
-        <v>361</v>
+      <c r="F64">
+        <v>11</v>
       </c>
       <c r="G64">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
         <v>41</v>
       </c>
-      <c r="J64" t="s">
-        <v>74</v>
+      <c r="I64" t="s">
+        <v>64</v>
+      </c>
+      <c r="K64" t="s">
+        <v>299</v>
       </c>
       <c r="L64" t="s">
-        <v>362</v>
+        <v>18</v>
       </c>
       <c r="M64" t="s">
-        <v>19</v>
-      </c>
-      <c r="N64" t="s">
-        <v>76</v>
+        <v>66</v>
+      </c>
+      <c r="P64" t="s">
+        <v>300</v>
       </c>
       <c r="Q64" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="R64" t="s">
-        <v>364</v>
-      </c>
-      <c r="S64" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>44177</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F65" t="s">
-        <v>367</v>
+      <c r="F65">
+        <v>1</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
         <v>6</v>
       </c>
-      <c r="J65" t="s">
-        <v>368</v>
+      <c r="I65" t="s">
+        <v>304</v>
+      </c>
+      <c r="K65" t="s">
+        <v>305</v>
       </c>
       <c r="L65" t="s">
-        <v>369</v>
+        <v>18</v>
       </c>
       <c r="M65" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="N65" t="s">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="O65" t="s">
-        <v>371</v>
+        <v>29</v>
       </c>
       <c r="P65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q65" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="R65" t="s">
-        <v>372</v>
-      </c>
-      <c r="S65" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>44177</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F66" t="s">
-        <v>375</v>
+      <c r="F66">
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -5106,38 +4571,35 @@
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66" t="s">
-        <v>17</v>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" t="s">
+        <v>311</v>
       </c>
       <c r="L66" t="s">
-        <v>376</v>
+        <v>18</v>
       </c>
       <c r="M66" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="N66" t="s">
-        <v>377</v>
-      </c>
-      <c r="O66" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>44177</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" t="s">
-        <v>379</v>
+        <v>314</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" t="s">
-        <v>380</v>
+      <c r="F67">
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -5145,800 +4607,746 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67" t="s">
-        <v>17</v>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" t="s">
+        <v>315</v>
       </c>
       <c r="L67" t="s">
-        <v>381</v>
+        <v>18</v>
       </c>
       <c r="M67" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="N67" t="s">
-        <v>382</v>
-      </c>
-      <c r="O67" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="P67" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>44178</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F68" t="s">
-        <v>386</v>
+      <c r="F68">
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
         <v>2</v>
       </c>
-      <c r="J68" t="s">
-        <v>17</v>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" t="s">
+        <v>320</v>
       </c>
       <c r="L68" t="s">
-        <v>387</v>
+        <v>18</v>
       </c>
       <c r="M68" t="s">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="N68" t="s">
-        <v>388</v>
-      </c>
-      <c r="O68" t="s">
-        <v>389</v>
-      </c>
-      <c r="S68" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="R68" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>44178</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" t="s">
-        <v>391</v>
+        <v>324</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F69" t="s">
-        <v>392</v>
+      <c r="F69">
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69" t="s">
-        <v>393</v>
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>325</v>
+      </c>
+      <c r="K69" t="s">
+        <v>326</v>
       </c>
       <c r="L69" t="s">
-        <v>394</v>
+        <v>18</v>
       </c>
       <c r="M69" t="s">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="N69" t="s">
-        <v>395</v>
+        <v>107</v>
       </c>
       <c r="O69" t="s">
-        <v>126</v>
-      </c>
-      <c r="P69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>44179</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" t="s">
-        <v>396</v>
+      <c r="F70">
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
         <v>3</v>
       </c>
-      <c r="J70" t="s">
-        <v>397</v>
+      <c r="I70" t="s">
+        <v>328</v>
+      </c>
+      <c r="K70" t="s">
+        <v>329</v>
       </c>
       <c r="L70" t="s">
-        <v>398</v>
+        <v>18</v>
       </c>
       <c r="M70" t="s">
-        <v>19</v>
+        <v>267</v>
       </c>
       <c r="N70" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="O70" t="s">
-        <v>324</v>
-      </c>
-      <c r="P70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>44179</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F71" t="s">
-        <v>400</v>
+      <c r="F71">
+        <v>12</v>
       </c>
       <c r="G71">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
         <v>21</v>
       </c>
-      <c r="J71" t="s">
-        <v>17</v>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" t="s">
+        <v>331</v>
       </c>
       <c r="L71" t="s">
-        <v>401</v>
+        <v>18</v>
       </c>
       <c r="M71" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="N71" t="s">
-        <v>402</v>
+        <v>333</v>
       </c>
       <c r="O71" t="s">
-        <v>403</v>
+        <v>29</v>
       </c>
       <c r="P71" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>44179</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F72" t="s">
-        <v>406</v>
+      <c r="F72">
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
         <v>2</v>
       </c>
-      <c r="J72" t="s">
-        <v>17</v>
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" t="s">
+        <v>336</v>
       </c>
       <c r="L72" t="s">
-        <v>407</v>
+        <v>18</v>
       </c>
       <c r="M72" t="s">
-        <v>19</v>
+        <v>337</v>
       </c>
       <c r="N72" t="s">
-        <v>408</v>
+        <v>338</v>
       </c>
       <c r="O72" t="s">
-        <v>409</v>
-      </c>
-      <c r="P72" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>44180</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" t="s">
-        <v>410</v>
+        <v>339</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" t="s">
-        <v>411</v>
+      <c r="F73">
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
         <v>3</v>
       </c>
-      <c r="J73" t="s">
-        <v>17</v>
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" t="s">
+        <v>340</v>
       </c>
       <c r="L73" t="s">
-        <v>412</v>
+        <v>18</v>
       </c>
       <c r="M73" t="s">
-        <v>19</v>
+        <v>341</v>
       </c>
       <c r="N73" t="s">
-        <v>413</v>
+        <v>342</v>
       </c>
       <c r="O73" t="s">
-        <v>414</v>
-      </c>
-      <c r="P73" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>44180</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" t="s">
-        <v>415</v>
+        <v>343</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F74" t="s">
-        <v>416</v>
+      <c r="F74">
+        <v>3</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
         <v>32</v>
       </c>
-      <c r="J74" t="s">
-        <v>17</v>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" t="s">
+        <v>344</v>
       </c>
       <c r="L74" t="s">
-        <v>417</v>
+        <v>18</v>
       </c>
       <c r="M74" t="s">
-        <v>19</v>
+        <v>345</v>
       </c>
       <c r="N74" t="s">
-        <v>418</v>
-      </c>
-      <c r="O74" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>44180</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F75" t="s">
-        <v>420</v>
+      <c r="F75">
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>2</v>
-      </c>
-      <c r="I75">
         <v>4</v>
       </c>
-      <c r="J75" t="s">
-        <v>17</v>
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" t="s">
+        <v>347</v>
       </c>
       <c r="L75" t="s">
-        <v>421</v>
+        <v>73</v>
       </c>
       <c r="M75" t="s">
-        <v>85</v>
-      </c>
-      <c r="N75" t="s">
-        <v>265</v>
-      </c>
-      <c r="S75" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="R75" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>44180</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" t="s">
-        <v>423</v>
+        <v>349</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F76" t="s">
-        <v>424</v>
+      <c r="F76">
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
         <v>3</v>
       </c>
-      <c r="J76" t="s">
-        <v>17</v>
+      <c r="I76" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" t="s">
+        <v>350</v>
       </c>
       <c r="L76" t="s">
-        <v>425</v>
+        <v>18</v>
       </c>
       <c r="M76" t="s">
-        <v>19</v>
+        <v>351</v>
       </c>
       <c r="N76" t="s">
-        <v>426</v>
-      </c>
-      <c r="O76" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>428</v>
-      </c>
-      <c r="S76" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="P76" t="s">
+        <v>353</v>
+      </c>
+      <c r="R76" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>44180</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F77" t="s">
-        <v>430</v>
+      <c r="F77">
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
         <v>4</v>
       </c>
-      <c r="J77" t="s">
-        <v>17</v>
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" t="s">
+        <v>355</v>
       </c>
       <c r="L77" t="s">
-        <v>431</v>
+        <v>18</v>
       </c>
       <c r="M77" t="s">
-        <v>19</v>
-      </c>
-      <c r="N77" t="s">
-        <v>181</v>
+        <v>152</v>
+      </c>
+      <c r="P77" t="s">
+        <v>153</v>
       </c>
       <c r="Q77" t="s">
-        <v>182</v>
+        <v>356</v>
       </c>
       <c r="R77" t="s">
-        <v>432</v>
-      </c>
-      <c r="S77" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>44181</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" t="s">
-        <v>434</v>
+        <v>358</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F78" t="s">
-        <v>435</v>
+      <c r="F78">
+        <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78" t="s">
-        <v>436</v>
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>359</v>
+      </c>
+      <c r="K78" t="s">
+        <v>360</v>
       </c>
       <c r="L78" t="s">
-        <v>437</v>
+        <v>18</v>
       </c>
       <c r="M78" t="s">
-        <v>19</v>
+        <v>361</v>
       </c>
       <c r="N78" t="s">
-        <v>438</v>
+        <v>362</v>
       </c>
       <c r="O78" t="s">
-        <v>439</v>
-      </c>
-      <c r="P78" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>44181</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" t="s">
-        <v>440</v>
+        <v>363</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F79" t="s">
-        <v>441</v>
+      <c r="F79">
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H79">
-        <v>4</v>
-      </c>
-      <c r="I79">
         <v>14</v>
       </c>
-      <c r="J79" t="s">
-        <v>17</v>
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" t="s">
+        <v>364</v>
       </c>
       <c r="L79" t="s">
-        <v>442</v>
+        <v>18</v>
       </c>
       <c r="M79" t="s">
-        <v>19</v>
+        <v>365</v>
       </c>
       <c r="N79" t="s">
-        <v>443</v>
+        <v>366</v>
       </c>
       <c r="O79" t="s">
-        <v>444</v>
+        <v>29</v>
       </c>
       <c r="P79" t="s">
-        <v>31</v>
+        <v>367</v>
       </c>
       <c r="Q79" t="s">
-        <v>445</v>
+        <v>368</v>
       </c>
       <c r="R79" t="s">
-        <v>446</v>
-      </c>
-      <c r="S79" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>44181</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" t="s">
-        <v>448</v>
+        <v>370</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F80" t="s">
-        <v>449</v>
+      <c r="F80">
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
         <v>11</v>
       </c>
-      <c r="J80" t="s">
-        <v>17</v>
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" t="s">
+        <v>371</v>
       </c>
       <c r="L80" t="s">
-        <v>450</v>
+        <v>18</v>
       </c>
       <c r="M80" t="s">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="N80" t="s">
-        <v>451</v>
+        <v>373</v>
       </c>
       <c r="O80" t="s">
-        <v>452</v>
+        <v>29</v>
       </c>
       <c r="P80" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>44181</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" t="s">
-        <v>454</v>
+        <v>375</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F81" t="s">
-        <v>455</v>
+      <c r="F81">
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
         <v>2</v>
       </c>
-      <c r="J81" t="s">
-        <v>17</v>
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81" t="s">
+        <v>376</v>
       </c>
       <c r="L81" t="s">
-        <v>456</v>
+        <v>18</v>
       </c>
       <c r="M81" t="s">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="N81" t="s">
-        <v>457</v>
-      </c>
-      <c r="O81" t="s">
-        <v>458</v>
+        <v>378</v>
+      </c>
+      <c r="P81" t="s">
+        <v>379</v>
       </c>
       <c r="Q81" t="s">
-        <v>459</v>
+        <v>380</v>
       </c>
       <c r="R81" t="s">
-        <v>460</v>
-      </c>
-      <c r="S81" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>44182</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" t="s">
-        <v>462</v>
+        <v>382</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F82" t="s">
-        <v>463</v>
+      <c r="F82">
+        <v>3</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
         <v>43</v>
       </c>
-      <c r="J82" t="s">
-        <v>17</v>
+      <c r="I82" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" t="s">
+        <v>383</v>
       </c>
       <c r="L82" t="s">
-        <v>464</v>
+        <v>18</v>
       </c>
       <c r="M82" t="s">
-        <v>19</v>
+        <v>384</v>
       </c>
       <c r="N82" t="s">
-        <v>465</v>
-      </c>
-      <c r="O82" t="s">
-        <v>466</v>
+        <v>385</v>
+      </c>
+      <c r="P82" t="s">
+        <v>386</v>
       </c>
       <c r="Q82" t="s">
-        <v>467</v>
+        <v>387</v>
       </c>
       <c r="R82" t="s">
-        <v>468</v>
-      </c>
-      <c r="S82" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>44182</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" t="s">
-        <v>470</v>
+        <v>389</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F83" t="s">
-        <v>471</v>
+      <c r="F83">
+        <v>0</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" t="s">
+        <v>390</v>
       </c>
       <c r="L83" t="s">
-        <v>472</v>
+        <v>18</v>
       </c>
       <c r="M83" t="s">
-        <v>19</v>
+        <v>391</v>
       </c>
       <c r="N83" t="s">
-        <v>473</v>
+        <v>392</v>
       </c>
       <c r="O83" t="s">
-        <v>474</v>
+        <v>29</v>
       </c>
       <c r="P83" t="s">
-        <v>31</v>
+        <v>393</v>
       </c>
       <c r="Q83" t="s">
-        <v>475</v>
+        <v>394</v>
       </c>
       <c r="R83" t="s">
-        <v>476</v>
-      </c>
-      <c r="S83" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>44182</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" t="s">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F84" t="s">
-        <v>479</v>
+      <c r="F84">
+        <v>0</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
         <v>2</v>
       </c>
-      <c r="J84" t="s">
-        <v>17</v>
+      <c r="I84" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84" t="s">
+        <v>397</v>
       </c>
       <c r="L84" t="s">
-        <v>480</v>
+        <v>18</v>
       </c>
       <c r="M84" t="s">
-        <v>19</v>
+        <v>398</v>
       </c>
       <c r="N84" t="s">
-        <v>481</v>
+        <v>399</v>
       </c>
       <c r="O84" t="s">
-        <v>482</v>
+        <v>29</v>
       </c>
       <c r="P84" t="s">
-        <v>31</v>
+        <v>400</v>
       </c>
       <c r="Q84" t="s">
-        <v>483</v>
+        <v>401</v>
       </c>
       <c r="R84" t="s">
-        <v>484</v>
-      </c>
-      <c r="S84" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>44182</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" t="s">
-        <v>486</v>
+        <v>403</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F85" t="s">
-        <v>487</v>
+      <c r="F85">
+        <v>0</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -5946,32 +5354,29 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85" t="s">
-        <v>17</v>
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" t="s">
+        <v>404</v>
       </c>
       <c r="L85" t="s">
-        <v>488</v>
+        <v>18</v>
       </c>
       <c r="M85" t="s">
-        <v>19</v>
+        <v>405</v>
       </c>
       <c r="N85" t="s">
-        <v>489</v>
-      </c>
-      <c r="O85" t="s">
-        <v>490</v>
+        <v>406</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>407</v>
       </c>
       <c r="R85" t="s">
-        <v>491</v>
-      </c>
-      <c r="S85" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>44182</v>
       </c>
@@ -5982,89 +5387,83 @@
       <c r="E86" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F86" t="s">
-        <v>493</v>
+      <c r="F86">
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" t="s">
-        <v>17</v>
+      <c r="I86" t="s">
+        <v>16</v>
+      </c>
+      <c r="K86" t="s">
+        <v>409</v>
       </c>
       <c r="L86" t="s">
-        <v>494</v>
+        <v>18</v>
       </c>
       <c r="M86" t="s">
-        <v>19</v>
+        <v>410</v>
       </c>
       <c r="N86" t="s">
-        <v>495</v>
+        <v>411</v>
       </c>
       <c r="O86" t="s">
-        <v>496</v>
-      </c>
-      <c r="P86" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>44182</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" t="s">
-        <v>497</v>
+        <v>412</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F87" t="s">
-        <v>498</v>
+      <c r="F87">
+        <v>0</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
         <v>2</v>
       </c>
-      <c r="J87" t="s">
-        <v>17</v>
+      <c r="I87" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" t="s">
+        <v>413</v>
       </c>
       <c r="L87" t="s">
-        <v>499</v>
+        <v>18</v>
       </c>
       <c r="M87" t="s">
-        <v>19</v>
-      </c>
-      <c r="N87" t="s">
-        <v>500</v>
-      </c>
-      <c r="P87" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="O87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>44183</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" t="s">
-        <v>501</v>
+        <v>415</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F88" t="s">
-        <v>502</v>
+      <c r="F88">
+        <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -6072,170 +5471,158 @@
       <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" t="s">
-        <v>17</v>
+      <c r="I88" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" t="s">
+        <v>416</v>
       </c>
       <c r="L88" t="s">
-        <v>503</v>
+        <v>18</v>
       </c>
       <c r="M88" t="s">
-        <v>19</v>
+        <v>417</v>
       </c>
       <c r="N88" t="s">
-        <v>504</v>
+        <v>418</v>
       </c>
       <c r="O88" t="s">
-        <v>505</v>
-      </c>
-      <c r="P88" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>44183</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" t="s">
-        <v>506</v>
+        <v>419</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F89" t="s">
-        <v>507</v>
+      <c r="F89">
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-      <c r="J89" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" t="s">
+        <v>420</v>
       </c>
       <c r="L89" t="s">
-        <v>508</v>
+        <v>18</v>
       </c>
       <c r="M89" t="s">
-        <v>19</v>
-      </c>
-      <c r="N89" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+      <c r="P89" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>44183</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" t="s">
-        <v>511</v>
+        <v>423</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F90" t="s">
-        <v>512</v>
+      <c r="F90">
+        <v>2</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
         <v>5</v>
       </c>
-      <c r="J90" t="s">
-        <v>17</v>
+      <c r="I90" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" t="s">
+        <v>424</v>
       </c>
       <c r="L90" t="s">
-        <v>513</v>
+        <v>18</v>
       </c>
       <c r="M90" t="s">
-        <v>19</v>
+        <v>425</v>
       </c>
       <c r="N90" t="s">
-        <v>514</v>
+        <v>426</v>
       </c>
       <c r="O90" t="s">
-        <v>515</v>
+        <v>262</v>
       </c>
       <c r="P90" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>44183</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" t="s">
-        <v>517</v>
+        <v>428</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F91" t="s">
-        <v>518</v>
+      <c r="F91">
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91" t="s">
-        <v>368</v>
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>304</v>
+      </c>
+      <c r="K91" t="s">
+        <v>429</v>
       </c>
       <c r="L91" t="s">
-        <v>519</v>
+        <v>18</v>
       </c>
       <c r="M91" t="s">
-        <v>19</v>
+        <v>430</v>
       </c>
       <c r="N91" t="s">
-        <v>520</v>
-      </c>
-      <c r="O91" t="s">
-        <v>521</v>
+        <v>431</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>432</v>
       </c>
       <c r="R91" t="s">
-        <v>522</v>
-      </c>
-      <c r="S91" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>44183</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" t="s">
-        <v>524</v>
+        <v>434</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F92" t="s">
-        <v>525</v>
+      <c r="F92">
+        <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -6243,41 +5630,38 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92" t="s">
-        <v>17</v>
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" t="s">
+        <v>435</v>
       </c>
       <c r="L92" t="s">
-        <v>526</v>
+        <v>18</v>
       </c>
       <c r="M92" t="s">
-        <v>19</v>
+        <v>436</v>
       </c>
       <c r="N92" t="s">
-        <v>527</v>
-      </c>
-      <c r="O92" t="s">
-        <v>528</v>
-      </c>
-      <c r="S92" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="R92" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>44183</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" t="s">
-        <v>530</v>
+        <v>439</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F93" t="s">
-        <v>531</v>
+      <c r="F93">
+        <v>0</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -6285,542 +5669,503 @@
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" t="s">
-        <v>17</v>
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" t="s">
+        <v>440</v>
       </c>
       <c r="L93" t="s">
-        <v>532</v>
+        <v>18</v>
       </c>
       <c r="M93" t="s">
-        <v>19</v>
+        <v>441</v>
       </c>
       <c r="N93" t="s">
-        <v>533</v>
-      </c>
-      <c r="O93" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>44184</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F94" t="s">
-        <v>535</v>
+      <c r="F94">
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94">
         <v>2</v>
       </c>
-      <c r="J94" t="s">
-        <v>17</v>
+      <c r="I94" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" t="s">
+        <v>443</v>
       </c>
       <c r="L94" t="s">
-        <v>536</v>
+        <v>18</v>
       </c>
       <c r="M94" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="N94" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="O94" t="s">
-        <v>93</v>
-      </c>
-      <c r="P94" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>444</v>
       </c>
       <c r="R94" t="s">
-        <v>537</v>
-      </c>
-      <c r="S94" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>44185</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" t="s">
-        <v>539</v>
+        <v>446</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F95" t="s">
-        <v>540</v>
+      <c r="F95">
+        <v>9</v>
       </c>
       <c r="G95">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H95">
-        <v>2</v>
-      </c>
-      <c r="I95">
         <v>35</v>
       </c>
-      <c r="J95" t="s">
-        <v>17</v>
+      <c r="I95" t="s">
+        <v>16</v>
+      </c>
+      <c r="K95" t="s">
+        <v>447</v>
       </c>
       <c r="L95" t="s">
-        <v>541</v>
+        <v>18</v>
       </c>
       <c r="M95" t="s">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="N95" t="s">
-        <v>542</v>
+        <v>449</v>
       </c>
       <c r="O95" t="s">
-        <v>543</v>
-      </c>
-      <c r="P95" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>44185</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" t="s">
-        <v>544</v>
+        <v>450</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F96" t="s">
-        <v>545</v>
+      <c r="F96">
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-      <c r="J96" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" t="s">
+        <v>451</v>
       </c>
       <c r="L96" t="s">
-        <v>546</v>
+        <v>18</v>
       </c>
       <c r="M96" t="s">
-        <v>19</v>
-      </c>
-      <c r="N96" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>44186</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" t="s">
-        <v>548</v>
+        <v>453</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F97" t="s">
-        <v>549</v>
+      <c r="F97">
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97" t="s">
-        <v>17</v>
+      <c r="I97" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97" t="s">
+        <v>454</v>
       </c>
       <c r="L97" t="s">
-        <v>550</v>
+        <v>18</v>
       </c>
       <c r="M97" t="s">
-        <v>19</v>
+        <v>455</v>
       </c>
       <c r="N97" t="s">
-        <v>551</v>
+        <v>456</v>
       </c>
       <c r="O97" t="s">
-        <v>552</v>
-      </c>
-      <c r="P97" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>44186</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" t="s">
-        <v>553</v>
+        <v>457</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F98" t="s">
-        <v>554</v>
+      <c r="F98">
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
         <v>4</v>
       </c>
-      <c r="J98" t="s">
-        <v>17</v>
+      <c r="I98" t="s">
+        <v>16</v>
+      </c>
+      <c r="K98" t="s">
+        <v>458</v>
       </c>
       <c r="L98" t="s">
-        <v>555</v>
+        <v>18</v>
       </c>
       <c r="M98" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="N98" t="s">
-        <v>556</v>
-      </c>
-      <c r="O98" t="s">
-        <v>557</v>
-      </c>
-      <c r="S98" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="R98" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>44186</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" t="s">
-        <v>559</v>
+        <v>462</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F99" t="s">
-        <v>560</v>
+      <c r="F99">
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" t="s">
+        <v>463</v>
       </c>
       <c r="L99" t="s">
-        <v>561</v>
+        <v>18</v>
       </c>
       <c r="M99" t="s">
-        <v>19</v>
+        <v>464</v>
       </c>
       <c r="N99" t="s">
-        <v>562</v>
-      </c>
-      <c r="O99" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>44187</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" t="s">
-        <v>423</v>
+        <v>349</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F100" t="s">
-        <v>564</v>
+      <c r="F100">
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100">
         <v>11</v>
       </c>
-      <c r="J100" t="s">
-        <v>17</v>
+      <c r="I100" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" t="s">
+        <v>466</v>
       </c>
       <c r="L100" t="s">
-        <v>565</v>
+        <v>18</v>
       </c>
       <c r="M100" t="s">
-        <v>19</v>
+        <v>351</v>
       </c>
       <c r="N100" t="s">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="O100" t="s">
-        <v>427</v>
+        <v>29</v>
       </c>
       <c r="P100" t="s">
-        <v>31</v>
+        <v>467</v>
       </c>
       <c r="Q100" t="s">
-        <v>566</v>
+        <v>468</v>
       </c>
       <c r="R100" t="s">
-        <v>567</v>
-      </c>
-      <c r="S100" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>44187</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" t="s">
-        <v>569</v>
+        <v>470</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F101" t="s">
-        <v>570</v>
+      <c r="F101">
+        <v>0</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
         <v>11</v>
       </c>
-      <c r="J101" t="s">
-        <v>397</v>
+      <c r="I101" t="s">
+        <v>328</v>
+      </c>
+      <c r="K101" t="s">
+        <v>471</v>
       </c>
       <c r="L101" t="s">
-        <v>571</v>
+        <v>18</v>
       </c>
       <c r="M101" t="s">
-        <v>19</v>
-      </c>
-      <c r="N101" t="s">
-        <v>572</v>
-      </c>
-      <c r="P101" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="O101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>44187</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" t="s">
-        <v>573</v>
+        <v>473</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F102" t="s">
-        <v>574</v>
+      <c r="F102">
+        <v>3</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
         <v>8</v>
       </c>
-      <c r="J102" t="s">
-        <v>17</v>
+      <c r="I102" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" t="s">
+        <v>474</v>
       </c>
       <c r="L102" t="s">
-        <v>575</v>
+        <v>18</v>
       </c>
       <c r="M102" t="s">
-        <v>19</v>
+        <v>475</v>
       </c>
       <c r="N102" t="s">
-        <v>576</v>
+        <v>476</v>
       </c>
       <c r="O102" t="s">
-        <v>577</v>
-      </c>
-      <c r="P102" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>44187</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F103" t="s">
-        <v>578</v>
+      <c r="F103">
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103">
         <v>4</v>
       </c>
-      <c r="J103" t="s">
-        <v>17</v>
+      <c r="I103" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" t="s">
+        <v>477</v>
       </c>
       <c r="L103" t="s">
-        <v>579</v>
+        <v>18</v>
       </c>
       <c r="M103" t="s">
-        <v>19</v>
-      </c>
-      <c r="N103" t="s">
-        <v>181</v>
+        <v>152</v>
+      </c>
+      <c r="P103" t="s">
+        <v>478</v>
       </c>
       <c r="Q103" t="s">
-        <v>580</v>
+        <v>479</v>
       </c>
       <c r="R103" t="s">
-        <v>581</v>
-      </c>
-      <c r="S103" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>44187</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" t="s">
-        <v>583</v>
+        <v>481</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F104" t="s">
-        <v>584</v>
+      <c r="F104">
+        <v>0</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
         <v>2</v>
       </c>
-      <c r="J104" t="s">
-        <v>17</v>
+      <c r="I104" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" t="s">
+        <v>482</v>
       </c>
       <c r="L104" t="s">
-        <v>585</v>
+        <v>18</v>
       </c>
       <c r="M104" t="s">
-        <v>19</v>
-      </c>
-      <c r="N104" t="s">
-        <v>586</v>
-      </c>
-      <c r="P104" t="s">
-        <v>31</v>
-      </c>
-      <c r="S104" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="O104" t="s">
+        <v>29</v>
+      </c>
+      <c r="R104" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>44187</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" t="s">
-        <v>588</v>
+        <v>485</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F105" t="s">
-        <v>589</v>
+      <c r="F105">
+        <v>0</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
         <v>2</v>
       </c>
-      <c r="J105" t="s">
-        <v>368</v>
+      <c r="I105" t="s">
+        <v>304</v>
+      </c>
+      <c r="K105" t="s">
+        <v>486</v>
       </c>
       <c r="L105" t="s">
-        <v>590</v>
+        <v>18</v>
       </c>
       <c r="M105" t="s">
-        <v>19</v>
-      </c>
-      <c r="N105" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>44188</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F106" t="s">
-        <v>591</v>
+      <c r="F106">
+        <v>0</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -6828,128 +6173,119 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106" t="s">
-        <v>17</v>
+      <c r="I106" t="s">
+        <v>16</v>
+      </c>
+      <c r="K106" t="s">
+        <v>487</v>
       </c>
       <c r="L106" t="s">
-        <v>592</v>
+        <v>18</v>
       </c>
       <c r="M106" t="s">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="N106" t="s">
-        <v>388</v>
-      </c>
-      <c r="O106" t="s">
-        <v>389</v>
-      </c>
-      <c r="S106" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="R106" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>44188</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" t="s">
-        <v>594</v>
+        <v>489</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F107" t="s">
-        <v>595</v>
+      <c r="F107">
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
         <v>8</v>
       </c>
-      <c r="J107" t="s">
-        <v>17</v>
+      <c r="I107" t="s">
+        <v>16</v>
+      </c>
+      <c r="K107" t="s">
+        <v>490</v>
       </c>
       <c r="L107" t="s">
-        <v>596</v>
+        <v>18</v>
       </c>
       <c r="M107" t="s">
-        <v>19</v>
+        <v>491</v>
       </c>
       <c r="N107" t="s">
-        <v>597</v>
+        <v>492</v>
       </c>
       <c r="O107" t="s">
-        <v>598</v>
-      </c>
-      <c r="P107" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>44188</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" t="s">
-        <v>599</v>
+        <v>493</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F108" t="s">
-        <v>600</v>
+      <c r="F108">
+        <v>2</v>
       </c>
       <c r="G108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
         <v>9</v>
       </c>
-      <c r="J108" t="s">
-        <v>17</v>
+      <c r="I108" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108" t="s">
+        <v>494</v>
       </c>
       <c r="L108" t="s">
-        <v>601</v>
+        <v>18</v>
       </c>
       <c r="M108" t="s">
-        <v>19</v>
+        <v>495</v>
       </c>
       <c r="N108" t="s">
-        <v>602</v>
+        <v>392</v>
       </c>
       <c r="O108" t="s">
-        <v>474</v>
+        <v>29</v>
       </c>
       <c r="P108" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>44188</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" t="s">
-        <v>604</v>
+        <v>497</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F109" t="s">
-        <v>605</v>
+      <c r="F109">
+        <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -6957,134 +6293,125 @@
       <c r="H109">
         <v>0</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
-        <v>17</v>
+      <c r="I109" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" t="s">
+        <v>498</v>
       </c>
       <c r="L109" t="s">
-        <v>606</v>
+        <v>18</v>
       </c>
       <c r="M109" t="s">
-        <v>19</v>
+        <v>499</v>
       </c>
       <c r="N109" t="s">
-        <v>607</v>
+        <v>163</v>
       </c>
       <c r="O109" t="s">
-        <v>194</v>
-      </c>
-      <c r="P109" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>44188</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" t="s">
-        <v>423</v>
+        <v>349</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F110" t="s">
-        <v>608</v>
+      <c r="F110">
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>17</v>
+      <c r="I110" t="s">
+        <v>16</v>
+      </c>
+      <c r="K110" t="s">
+        <v>500</v>
       </c>
       <c r="L110" t="s">
-        <v>609</v>
+        <v>18</v>
       </c>
       <c r="M110" t="s">
-        <v>19</v>
+        <v>351</v>
       </c>
       <c r="N110" t="s">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="O110" t="s">
-        <v>427</v>
+        <v>29</v>
       </c>
       <c r="P110" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>44188</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" t="s">
-        <v>610</v>
+        <v>501</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F111" t="s">
-        <v>611</v>
+      <c r="F111">
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
-      <c r="J111" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>16</v>
+      </c>
+      <c r="K111" t="s">
+        <v>502</v>
       </c>
       <c r="L111" t="s">
-        <v>612</v>
+        <v>73</v>
       </c>
       <c r="M111" t="s">
-        <v>85</v>
+        <v>503</v>
       </c>
       <c r="N111" t="s">
-        <v>613</v>
+        <v>504</v>
       </c>
       <c r="O111" t="s">
-        <v>614</v>
+        <v>29</v>
       </c>
       <c r="P111" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>615</v>
-      </c>
-      <c r="S111" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+      <c r="R111" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>44188</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" t="s">
-        <v>617</v>
+        <v>507</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F112" t="s">
-        <v>618</v>
+      <c r="F112">
+        <v>0</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -7092,44 +6419,41 @@
       <c r="H112">
         <v>0</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112" t="s">
-        <v>17</v>
+      <c r="I112" t="s">
+        <v>16</v>
+      </c>
+      <c r="K112" t="s">
+        <v>508</v>
       </c>
       <c r="L112" t="s">
-        <v>619</v>
+        <v>18</v>
       </c>
       <c r="M112" t="s">
-        <v>19</v>
+        <v>509</v>
       </c>
       <c r="N112" t="s">
-        <v>620</v>
-      </c>
-      <c r="O112" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>384</v>
-      </c>
-      <c r="S112" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="P112" t="s">
+        <v>318</v>
+      </c>
+      <c r="R112" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>44189</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" t="s">
-        <v>623</v>
+        <v>512</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F113" t="s">
-        <v>624</v>
+      <c r="F113">
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -7137,528 +6461,347 @@
       <c r="H113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
-        <v>17</v>
+      <c r="I113" t="s">
+        <v>16</v>
+      </c>
+      <c r="K113" t="s">
+        <v>513</v>
       </c>
       <c r="L113" t="s">
-        <v>625</v>
+        <v>18</v>
       </c>
       <c r="M113" t="s">
-        <v>19</v>
-      </c>
-      <c r="N113" t="s">
-        <v>626</v>
-      </c>
-      <c r="P113" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="O113" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>44191</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F114" t="s">
-        <v>627</v>
+      <c r="F114">
+        <v>0</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
         <v>2</v>
       </c>
-      <c r="J114" t="s">
-        <v>17</v>
+      <c r="I114" t="s">
+        <v>16</v>
+      </c>
+      <c r="K114" t="s">
+        <v>515</v>
       </c>
       <c r="L114" t="s">
-        <v>628</v>
+        <v>18</v>
       </c>
       <c r="M114" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="N114" t="s">
-        <v>243</v>
-      </c>
-      <c r="O114" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E115" s="2" t="str">
-        <f t="shared" ref="E115:E146" si="0">HYPERLINK(F115)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E116" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E117" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E118" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E119" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E120" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E121" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E122" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E123" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E124" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E125" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E126" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E127" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E128" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E128" s="2"/>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E129" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E129" s="2"/>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E130" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E130" s="2"/>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E131" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E131" s="2"/>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E132" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E132" s="2"/>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E133" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E133" s="2"/>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E134" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E134" s="2"/>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E135" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E135" s="2"/>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E136" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E136" s="2"/>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E137" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E137" s="2"/>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E138" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E138" s="2"/>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E139" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E139" s="2"/>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E140" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E140" s="2"/>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E141" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E141" s="2"/>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E142" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E142" s="2"/>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E143" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E143" s="2"/>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E144" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E144" s="2"/>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E145" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E145" s="2"/>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E146" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E146" s="2"/>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E147" s="2" t="str">
-        <f t="shared" ref="E147:E178" si="1">HYPERLINK(F147)</f>
-        <v/>
-      </c>
+      <c r="E147" s="2"/>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E148" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E148" s="2"/>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E149" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E149" s="2"/>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E150" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E150" s="2"/>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E151" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E151" s="2"/>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E152" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E152" s="2"/>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E153" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E153" s="2"/>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E154" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E154" s="2"/>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E155" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E155" s="2"/>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E156" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E156" s="2"/>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E157" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E157" s="2"/>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E158" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E158" s="2"/>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E159" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E159" s="2"/>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E160" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E160" s="2"/>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E161" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E161" s="2"/>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E162" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E162" s="2"/>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E163" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E163" s="2"/>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E164" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E164" s="2"/>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E165" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E165" s="2"/>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E166" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E166" s="2"/>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E167" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E167" s="2"/>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E168" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E168" s="2"/>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E169" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E169" s="2"/>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E170" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E170" s="2"/>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E171" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E171" s="2"/>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E172" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="E172" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="E7" r:id="rId7"/>
-    <hyperlink ref="E8" r:id="rId8"/>
-    <hyperlink ref="E9" r:id="rId9"/>
-    <hyperlink ref="E10" r:id="rId10"/>
-    <hyperlink ref="E11" r:id="rId11"/>
-    <hyperlink ref="E12" r:id="rId12"/>
-    <hyperlink ref="E13" r:id="rId13"/>
-    <hyperlink ref="E14" r:id="rId14"/>
-    <hyperlink ref="E15" r:id="rId15"/>
-    <hyperlink ref="E16" r:id="rId16"/>
-    <hyperlink ref="E17" r:id="rId17"/>
-    <hyperlink ref="E18" r:id="rId18"/>
-    <hyperlink ref="E19" r:id="rId19"/>
-    <hyperlink ref="E20" r:id="rId20"/>
-    <hyperlink ref="E21" r:id="rId21"/>
-    <hyperlink ref="E22" r:id="rId22"/>
-    <hyperlink ref="E23" r:id="rId23"/>
-    <hyperlink ref="E24" r:id="rId24"/>
-    <hyperlink ref="E25" r:id="rId25"/>
-    <hyperlink ref="E26" r:id="rId26"/>
-    <hyperlink ref="E27" r:id="rId27"/>
-    <hyperlink ref="E28" r:id="rId28"/>
-    <hyperlink ref="E29" r:id="rId29"/>
-    <hyperlink ref="E30" r:id="rId30"/>
-    <hyperlink ref="E31" r:id="rId31"/>
-    <hyperlink ref="E32" r:id="rId32"/>
-    <hyperlink ref="E33" r:id="rId33"/>
-    <hyperlink ref="E34" r:id="rId34"/>
-    <hyperlink ref="E35" r:id="rId35"/>
-    <hyperlink ref="E36" r:id="rId36"/>
-    <hyperlink ref="E37" r:id="rId37"/>
-    <hyperlink ref="E38" r:id="rId38"/>
-    <hyperlink ref="E39" r:id="rId39"/>
-    <hyperlink ref="E40" r:id="rId40"/>
-    <hyperlink ref="E41" r:id="rId41"/>
-    <hyperlink ref="E42" r:id="rId42"/>
-    <hyperlink ref="E43" r:id="rId43"/>
-    <hyperlink ref="E44" r:id="rId44"/>
-    <hyperlink ref="E45" r:id="rId45"/>
-    <hyperlink ref="E46" r:id="rId46"/>
-    <hyperlink ref="E47" r:id="rId47"/>
-    <hyperlink ref="E48" r:id="rId48"/>
-    <hyperlink ref="E49" r:id="rId49"/>
-    <hyperlink ref="E50" r:id="rId50"/>
-    <hyperlink ref="E51" r:id="rId51"/>
-    <hyperlink ref="E52" r:id="rId52"/>
-    <hyperlink ref="E53" r:id="rId53"/>
-    <hyperlink ref="E54" r:id="rId54"/>
-    <hyperlink ref="E55" r:id="rId55"/>
-    <hyperlink ref="E56" r:id="rId56"/>
-    <hyperlink ref="E57" r:id="rId57"/>
-    <hyperlink ref="E58" r:id="rId58"/>
-    <hyperlink ref="E59" r:id="rId59"/>
-    <hyperlink ref="E60" r:id="rId60"/>
-    <hyperlink ref="E61" r:id="rId61"/>
-    <hyperlink ref="E62" r:id="rId62"/>
-    <hyperlink ref="E63" r:id="rId63"/>
-    <hyperlink ref="E64" r:id="rId64"/>
-    <hyperlink ref="E65" r:id="rId65"/>
-    <hyperlink ref="E66" r:id="rId66"/>
-    <hyperlink ref="E67" r:id="rId67"/>
-    <hyperlink ref="E68" r:id="rId68"/>
-    <hyperlink ref="E69" r:id="rId69"/>
-    <hyperlink ref="E70" r:id="rId70"/>
-    <hyperlink ref="E71" r:id="rId71"/>
-    <hyperlink ref="E72" r:id="rId72"/>
-    <hyperlink ref="E73" r:id="rId73"/>
-    <hyperlink ref="E74" r:id="rId74"/>
-    <hyperlink ref="E75" r:id="rId75"/>
-    <hyperlink ref="E76" r:id="rId76"/>
-    <hyperlink ref="E77" r:id="rId77"/>
-    <hyperlink ref="E78" r:id="rId78"/>
-    <hyperlink ref="E79" r:id="rId79"/>
-    <hyperlink ref="E80" r:id="rId80"/>
-    <hyperlink ref="E81" r:id="rId81"/>
-    <hyperlink ref="E82" r:id="rId82"/>
-    <hyperlink ref="E83" r:id="rId83"/>
-    <hyperlink ref="E84" r:id="rId84"/>
-    <hyperlink ref="E85" r:id="rId85"/>
-    <hyperlink ref="E86" r:id="rId86"/>
-    <hyperlink ref="E87" r:id="rId87"/>
-    <hyperlink ref="E88" r:id="rId88"/>
-    <hyperlink ref="E89" r:id="rId89"/>
-    <hyperlink ref="E90" r:id="rId90"/>
-    <hyperlink ref="E91" r:id="rId91"/>
-    <hyperlink ref="E92" r:id="rId92"/>
-    <hyperlink ref="E93" r:id="rId93"/>
-    <hyperlink ref="E94" r:id="rId94"/>
-    <hyperlink ref="E95" r:id="rId95"/>
-    <hyperlink ref="E96" r:id="rId96"/>
-    <hyperlink ref="E97" r:id="rId97"/>
-    <hyperlink ref="E98" r:id="rId98"/>
-    <hyperlink ref="E99" r:id="rId99"/>
-    <hyperlink ref="E100" r:id="rId100"/>
-    <hyperlink ref="E101" r:id="rId101"/>
-    <hyperlink ref="E102" r:id="rId102"/>
-    <hyperlink ref="E103" r:id="rId103"/>
-    <hyperlink ref="E104" r:id="rId104"/>
-    <hyperlink ref="E105" r:id="rId105"/>
-    <hyperlink ref="E106" r:id="rId106"/>
-    <hyperlink ref="E107" r:id="rId107"/>
-    <hyperlink ref="E108" r:id="rId108"/>
-    <hyperlink ref="E109" r:id="rId109"/>
-    <hyperlink ref="E110" r:id="rId110"/>
-    <hyperlink ref="E111" r:id="rId111"/>
-    <hyperlink ref="E112" r:id="rId112"/>
-    <hyperlink ref="E113" r:id="rId113"/>
-    <hyperlink ref="E114" r:id="rId114"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
+    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E29" r:id="rId28"/>
+    <hyperlink ref="E30" r:id="rId29"/>
+    <hyperlink ref="E31" r:id="rId30"/>
+    <hyperlink ref="E32" r:id="rId31"/>
+    <hyperlink ref="E33" r:id="rId32"/>
+    <hyperlink ref="E34" r:id="rId33"/>
+    <hyperlink ref="E35" r:id="rId34"/>
+    <hyperlink ref="E36" r:id="rId35"/>
+    <hyperlink ref="E37" r:id="rId36"/>
+    <hyperlink ref="E38" r:id="rId37"/>
+    <hyperlink ref="E39" r:id="rId38"/>
+    <hyperlink ref="E40" r:id="rId39"/>
+    <hyperlink ref="E41" r:id="rId40"/>
+    <hyperlink ref="E42" r:id="rId41"/>
+    <hyperlink ref="E43" r:id="rId42"/>
+    <hyperlink ref="E44" r:id="rId43"/>
+    <hyperlink ref="E45" r:id="rId44"/>
+    <hyperlink ref="E46" r:id="rId45"/>
+    <hyperlink ref="E47" r:id="rId46"/>
+    <hyperlink ref="E48" r:id="rId47"/>
+    <hyperlink ref="E49" r:id="rId48"/>
+    <hyperlink ref="E50" r:id="rId49"/>
+    <hyperlink ref="E51" r:id="rId50"/>
+    <hyperlink ref="E52" r:id="rId51"/>
+    <hyperlink ref="E53" r:id="rId52"/>
+    <hyperlink ref="E54" r:id="rId53"/>
+    <hyperlink ref="E55" r:id="rId54"/>
+    <hyperlink ref="E56" r:id="rId55"/>
+    <hyperlink ref="E57" r:id="rId56"/>
+    <hyperlink ref="E58" r:id="rId57"/>
+    <hyperlink ref="E59" r:id="rId58"/>
+    <hyperlink ref="E60" r:id="rId59"/>
+    <hyperlink ref="E61" r:id="rId60"/>
+    <hyperlink ref="E62" r:id="rId61"/>
+    <hyperlink ref="E63" r:id="rId62"/>
+    <hyperlink ref="E64" r:id="rId63"/>
+    <hyperlink ref="E65" r:id="rId64"/>
+    <hyperlink ref="E66" r:id="rId65"/>
+    <hyperlink ref="E67" r:id="rId66"/>
+    <hyperlink ref="E68" r:id="rId67"/>
+    <hyperlink ref="E69" r:id="rId68"/>
+    <hyperlink ref="E70" r:id="rId69"/>
+    <hyperlink ref="E71" r:id="rId70"/>
+    <hyperlink ref="E72" r:id="rId71"/>
+    <hyperlink ref="E73" r:id="rId72"/>
+    <hyperlink ref="E74" r:id="rId73"/>
+    <hyperlink ref="E75" r:id="rId74"/>
+    <hyperlink ref="E76" r:id="rId75"/>
+    <hyperlink ref="E77" r:id="rId76"/>
+    <hyperlink ref="E78" r:id="rId77"/>
+    <hyperlink ref="E79" r:id="rId78"/>
+    <hyperlink ref="E80" r:id="rId79"/>
+    <hyperlink ref="E81" r:id="rId80"/>
+    <hyperlink ref="E82" r:id="rId81"/>
+    <hyperlink ref="E83" r:id="rId82"/>
+    <hyperlink ref="E84" r:id="rId83"/>
+    <hyperlink ref="E85" r:id="rId84"/>
+    <hyperlink ref="E86" r:id="rId85"/>
+    <hyperlink ref="E87" r:id="rId86"/>
+    <hyperlink ref="E88" r:id="rId87"/>
+    <hyperlink ref="E89" r:id="rId88"/>
+    <hyperlink ref="E90" r:id="rId89"/>
+    <hyperlink ref="E91" r:id="rId90"/>
+    <hyperlink ref="E92" r:id="rId91"/>
+    <hyperlink ref="E93" r:id="rId92"/>
+    <hyperlink ref="E94" r:id="rId93"/>
+    <hyperlink ref="E95" r:id="rId94"/>
+    <hyperlink ref="E96" r:id="rId95"/>
+    <hyperlink ref="E97" r:id="rId96"/>
+    <hyperlink ref="E98" r:id="rId97"/>
+    <hyperlink ref="E99" r:id="rId98"/>
+    <hyperlink ref="E100" r:id="rId99"/>
+    <hyperlink ref="E101" r:id="rId100"/>
+    <hyperlink ref="E102" r:id="rId101"/>
+    <hyperlink ref="E103" r:id="rId102"/>
+    <hyperlink ref="E104" r:id="rId103"/>
+    <hyperlink ref="E105" r:id="rId104"/>
+    <hyperlink ref="E106" r:id="rId105"/>
+    <hyperlink ref="E107" r:id="rId106"/>
+    <hyperlink ref="E108" r:id="rId107"/>
+    <hyperlink ref="E109" r:id="rId108"/>
+    <hyperlink ref="E110" r:id="rId109"/>
+    <hyperlink ref="E111" r:id="rId110"/>
+    <hyperlink ref="E112" r:id="rId111"/>
+    <hyperlink ref="E113" r:id="rId112"/>
+    <hyperlink ref="E114" r:id="rId113"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
